--- a/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
+++ b/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
   <si>
     <t>PERIOD</t>
   </si>
@@ -433,6 +433,15 @@
   </si>
   <si>
     <t>7/15,18,19/2022</t>
+  </si>
+  <si>
+    <t>8/3-5/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
+  </si>
+  <si>
+    <t>4/27,28/2022</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1133,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1453,12 +1462,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1634,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>192.49099999999999</v>
+        <v>191.71799999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1635,7 +1644,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>237.5</v>
+        <v>234.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3136,9 +3145,13 @@
       <c r="A78" s="40">
         <v>44652</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>2</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
@@ -3148,15 +3161,21 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44682</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -3901,13 +3920,15 @@
       <c r="B112" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39">
         <v>2</v>
@@ -3944,7 +3965,9 @@
       <c r="A114" s="40">
         <v>45139</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
@@ -3953,16 +3976,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="39">
+        <v>1</v>
+      </c>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="48">
+        <v>45134</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B115" s="20"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
@@ -3971,14 +3998,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="39">
+        <v>3</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="48" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3996,7 +4027,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4014,7 +4045,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4032,7 +4063,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4050,7 +4081,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4068,7 +4099,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4086,7 +4117,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4104,7 +4135,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4122,7 +4153,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4140,7 +4171,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4158,7 +4189,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4176,7 +4207,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4194,7 +4225,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4212,7 +4243,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4230,7 +4261,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4248,7 +4279,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4266,7 +4297,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4284,7 +4315,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4302,7 +4333,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4320,7 +4351,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4338,7 +4369,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4356,7 +4387,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4374,7 +4405,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4392,7 +4423,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4410,7 +4441,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4428,7 +4459,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4446,7 +4477,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4464,7 +4495,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4482,21 +4513,39 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="40">
         <v>46054</v>
       </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="43"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="43"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="43"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4611,14 +4660,14 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.125</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
+++ b/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
   <si>
     <t>PERIOD</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>4/27,28/2022</t>
+  </si>
+  <si>
+    <t>9/6,12/2023</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1462,12 +1465,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A99" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1637,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.71799999999999</v>
+        <v>191.96799999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1644,7 +1647,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>234.75</v>
+        <v>233</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3142,15 +3145,13 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
@@ -3161,20 +3162,20 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>132</v>
+      <c r="K78" s="48">
+        <v>44635</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39">
-        <v>2.3000000000000007E-2</v>
+        <v>2</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -3185,34 +3186,36 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39">
-        <v>2</v>
-      </c>
+      <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>44713</v>
+      </c>
       <c r="B81" s="20" t="s">
         <v>48</v>
       </c>
@@ -3230,7 +3233,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3252,13 +3255,13 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -3269,41 +3272,41 @@
         <v/>
       </c>
       <c r="H83" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A84" s="40"/>
+      <c r="B84" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H84" s="39"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="39">
+        <v>3</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -3314,19 +3317,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="39">
-        <v>2</v>
-      </c>
+      <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>44774</v>
+      </c>
       <c r="B86" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
@@ -3339,44 +3340,46 @@
         <v>1.25</v>
       </c>
       <c r="H86" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="48">
-        <v>44798</v>
+      <c r="K86" s="20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39"/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H87" s="39">
+        <v>1</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="48">
-        <v>44796</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
@@ -3387,63 +3390,63 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="48"/>
+      <c r="K88" s="48">
+        <v>44796</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="39">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="48">
-        <v>44904</v>
-      </c>
+      <c r="K89" s="48"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>44805</v>
+      </c>
       <c r="B90" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+        <v>97</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="39">
+        <v>1</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="48">
-        <v>44826</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="39">
-        <v>3</v>
-      </c>
+      <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -3453,18 +3456,18 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="48" t="s">
-        <v>126</v>
+      <c r="K91" s="48">
+        <v>44826</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39">
-        <v>4.0000000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
@@ -3475,64 +3478,64 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="48"/>
+      <c r="K92" s="48" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>44844</v>
-      </c>
+      <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" s="13">
-        <v>1.25</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C93" s="13"/>
       <c r="D93" s="39">
-        <v>5</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="K93" s="48"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>44844</v>
+      </c>
       <c r="B94" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39">
-        <v>4.0000000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
@@ -3543,22 +3546,24 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D96" s="39"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -3567,11 +3572,9 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B97" s="20"/>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
@@ -3582,45 +3585,45 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H97" s="39">
-        <v>2</v>
-      </c>
+      <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>44896</v>
+      </c>
       <c r="B98" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H98" s="39">
+        <v>2</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
@@ -3632,17 +3635,17 @@
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39">
-        <v>0.29599999999999999</v>
+        <v>2</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
@@ -3653,15 +3656,19 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="20"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="39">
+        <v>0.29599999999999999</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -3674,34 +3681,26 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A102" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H102" s="39">
-        <v>2</v>
-      </c>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>109</v>
@@ -3722,200 +3721,200 @@
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>44958</v>
+      </c>
       <c r="B104" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H104" s="39">
+        <v>2</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" s="13">
-        <v>1.25</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H105" s="39">
-        <v>3</v>
-      </c>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>44986</v>
+      </c>
       <c r="B106" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="39"/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H106" s="39">
+        <v>3</v>
+      </c>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="48">
-        <v>45012</v>
+      <c r="K106" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D107" s="39"/>
+        <v>112</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39">
+        <v>1</v>
+      </c>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H107" s="39">
-        <v>1</v>
-      </c>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="48">
-        <v>45027</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45017</v>
+      </c>
       <c r="B108" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H108" s="39">
+        <v>1</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="48" t="s">
-        <v>113</v>
+      <c r="K108" s="48">
+        <v>45027</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="13">
-        <v>1.25</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C109" s="13"/>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H109" s="39">
-        <v>2</v>
-      </c>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20" t="s">
-        <v>114</v>
+      <c r="K109" s="48" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45047</v>
+      </c>
       <c r="B110" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39">
-        <v>6</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H110" s="39">
+        <v>2</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D111" s="39"/>
+        <v>115</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39">
+        <v>6</v>
+      </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H111" s="39">
-        <v>2</v>
-      </c>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>109</v>
@@ -3936,35 +3935,37 @@
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45108</v>
+      </c>
       <c r="B113" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="48">
-        <v>45126</v>
+      <c r="K113" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>111</v>
       </c>
@@ -3982,36 +3983,40 @@
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="48">
-        <v>45134</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45139</v>
+      </c>
       <c r="B115" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C115" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="48" t="s">
-        <v>130</v>
+      <c r="K115" s="48">
+        <v>45134</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B116" s="20"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
@@ -4020,16 +4025,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="39">
+        <v>3</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="48" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B117" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
@@ -4038,16 +4049,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="39">
+        <v>1</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="48">
+        <v>45170</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B118" s="20"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
@@ -4056,14 +4071,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H118" s="39"/>
+      <c r="H118" s="39">
+        <v>2</v>
+      </c>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="48" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4081,7 +4100,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4099,7 +4118,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4117,7 +4136,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4135,7 +4154,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4153,7 +4172,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4171,7 +4190,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4189,7 +4208,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4207,7 +4226,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4225,7 +4244,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4243,7 +4262,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4261,7 +4280,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4279,7 +4298,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4297,7 +4316,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4315,7 +4334,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4333,7 +4352,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4351,7 +4370,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4369,7 +4388,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4387,7 +4406,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4405,7 +4424,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4423,7 +4442,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4441,7 +4460,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4459,7 +4478,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4477,7 +4496,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4495,7 +4514,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4513,7 +4532,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4531,21 +4550,57 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
         <v>46054</v>
       </c>
-      <c r="B145" s="15"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="43"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="43"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
+++ b/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="279">
   <si>
     <t>PERIOD</t>
   </si>
@@ -868,6 +868,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-5-0)</t>
+  </si>
+  <si>
+    <t>UT(1-4-0)</t>
+  </si>
+  <si>
+    <t>UT(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1604,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K479" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K490" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1921,11 +1933,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K479"/>
+  <dimension ref="A2:K490"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A432" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E451" sqref="E451"/>
+      <selection pane="bottomLeft" activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2104,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
+        <v>198.05300000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11507,129 +11519,121 @@
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="39">
-        <v>45139</v>
-      </c>
+      <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C445" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D445" s="38"/>
+        <v>278</v>
+      </c>
+      <c r="C445" s="13"/>
+      <c r="D445" s="38">
+        <v>1</v>
+      </c>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H445" s="38">
-        <v>1</v>
-      </c>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="38"/>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="50">
-        <v>45134</v>
-      </c>
+      <c r="K445" s="50"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="39"/>
+      <c r="A446" s="39">
+        <v>45139</v>
+      </c>
       <c r="B446" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C446" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C446" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D446" s="38"/>
       <c r="E446" s="9"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G446" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H446" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
-      <c r="K446" s="50" t="s">
-        <v>270</v>
+      <c r="K446" s="50">
+        <v>45134</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="39">
-        <v>45170</v>
-      </c>
+      <c r="A447" s="39"/>
       <c r="B447" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C447" s="13">
-        <v>1.25</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C447" s="13"/>
       <c r="D447" s="38"/>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
-      <c r="G447" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G447" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H447" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
-      <c r="K447" s="50">
-        <v>45170</v>
+      <c r="K447" s="50" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39"/>
       <c r="B448" s="20" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="C448" s="13"/>
-      <c r="D448" s="38"/>
+      <c r="D448" s="38">
+        <v>1</v>
+      </c>
       <c r="E448" s="9"/>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H448" s="38">
-        <v>2</v>
-      </c>
+      <c r="H448" s="38"/>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="50" t="s">
-        <v>271</v>
+      <c r="K448" s="50">
+        <v>45156</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39"/>
       <c r="B449" s="20" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C449" s="13"/>
-      <c r="D449" s="38"/>
+      <c r="D449" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
       <c r="G449" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H449" s="38">
-        <v>1</v>
-      </c>
+      <c r="H449" s="38"/>
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
-      <c r="K449" s="50">
-        <v>45198</v>
-      </c>
+      <c r="K449" s="50"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C450" s="13">
         <v>1.25</v>
@@ -11642,69 +11646,67 @@
         <v>1.25</v>
       </c>
       <c r="H450" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
-      <c r="K450" s="20" t="s">
-        <v>272</v>
+      <c r="K450" s="50">
+        <v>45170</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39"/>
       <c r="B451" s="20" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C451" s="13"/>
-      <c r="D451" s="38">
-        <v>5</v>
-      </c>
+      <c r="D451" s="38"/>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
       <c r="G451" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H451" s="38"/>
+      <c r="H451" s="38">
+        <v>2</v>
+      </c>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="20" t="s">
-        <v>273</v>
+      <c r="K451" s="50" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="39">
-        <v>45231</v>
-      </c>
+      <c r="A452" s="39"/>
       <c r="B452" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C452" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D452" s="38">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C452" s="13"/>
+      <c r="D452" s="38"/>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H452" s="38"/>
+      <c r="G452" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H452" s="38">
+        <v>1</v>
+      </c>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
       <c r="K452" s="50">
-        <v>45264</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B453" s="20"/>
+      <c r="A453" s="39"/>
+      <c r="B453" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C453" s="13"/>
-      <c r="D453" s="38"/>
+      <c r="D453" s="38">
+        <v>1</v>
+      </c>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
       <c r="G453" s="13" t="str">
@@ -11714,15 +11716,19 @@
       <c r="H453" s="38"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
-      <c r="K453" s="20"/>
+      <c r="K453" s="50">
+        <v>45196</v>
+      </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B454" s="20"/>
+      <c r="A454" s="39"/>
+      <c r="B454" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="C454" s="13"/>
-      <c r="D454" s="38"/>
+      <c r="D454" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E454" s="9"/>
       <c r="F454" s="20"/>
       <c r="G454" s="13" t="str">
@@ -11732,33 +11738,43 @@
       <c r="H454" s="38"/>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="20"/>
+      <c r="K454" s="50"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B455" s="20"/>
-      <c r="C455" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B455" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C455" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D455" s="38"/>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H455" s="38"/>
+      <c r="G455" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H455" s="38">
+        <v>2</v>
+      </c>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="20"/>
+      <c r="K455" s="20" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B456" s="20"/>
+      <c r="A456" s="39"/>
+      <c r="B456" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="C456" s="13"/>
-      <c r="D456" s="38"/>
+      <c r="D456" s="38">
+        <v>5</v>
+      </c>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
       <c r="G456" s="13" t="str">
@@ -11768,15 +11784,19 @@
       <c r="H456" s="38"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="20"/>
+      <c r="K456" s="20" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="39">
-        <v>45383</v>
-      </c>
-      <c r="B457" s="20"/>
+      <c r="A457" s="39"/>
+      <c r="B457" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C457" s="13"/>
-      <c r="D457" s="38"/>
+      <c r="D457" s="38">
+        <v>1</v>
+      </c>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
       <c r="G457" s="13" t="str">
@@ -11786,15 +11806,19 @@
       <c r="H457" s="38"/>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="20"/>
+      <c r="K457" s="50">
+        <v>45201</v>
+      </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="39">
-        <v>45413</v>
-      </c>
-      <c r="B458" s="20"/>
+      <c r="A458" s="39"/>
+      <c r="B458" s="20" t="s">
+        <v>278</v>
+      </c>
       <c r="C458" s="13"/>
-      <c r="D458" s="38"/>
+      <c r="D458" s="38">
+        <v>1</v>
+      </c>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
       <c r="G458" s="13" t="str">
@@ -11804,33 +11828,43 @@
       <c r="H458" s="38"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="20"/>
+      <c r="K458" s="50"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39">
-        <v>45444</v>
-      </c>
-      <c r="B459" s="20"/>
-      <c r="C459" s="13"/>
-      <c r="D459" s="38"/>
+        <v>45231</v>
+      </c>
+      <c r="B459" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D459" s="38">
+        <v>1</v>
+      </c>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H459" s="38"/>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="20"/>
+      <c r="K459" s="50">
+        <v>45264</v>
+      </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="39">
-        <v>45474</v>
-      </c>
-      <c r="B460" s="20"/>
+      <c r="A460" s="39"/>
+      <c r="B460" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C460" s="13"/>
-      <c r="D460" s="38"/>
+      <c r="D460" s="38">
+        <v>1</v>
+      </c>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
       <c r="G460" s="13" t="str">
@@ -11840,15 +11874,19 @@
       <c r="H460" s="38"/>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="20"/>
+      <c r="K460" s="50">
+        <v>45240</v>
+      </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="39">
-        <v>45505</v>
-      </c>
-      <c r="B461" s="20"/>
+      <c r="A461" s="39"/>
+      <c r="B461" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="C461" s="13"/>
-      <c r="D461" s="38"/>
+      <c r="D461" s="38">
+        <v>1.5</v>
+      </c>
       <c r="E461" s="9"/>
       <c r="F461" s="20"/>
       <c r="G461" s="13" t="str">
@@ -11858,15 +11896,19 @@
       <c r="H461" s="38"/>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="20"/>
+      <c r="K461" s="50"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39">
-        <v>45536</v>
-      </c>
-      <c r="B462" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B462" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C462" s="13"/>
-      <c r="D462" s="38"/>
+      <c r="D462" s="38">
+        <v>1</v>
+      </c>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
       <c r="G462" s="13" t="str">
@@ -11876,15 +11918,19 @@
       <c r="H462" s="38"/>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="20"/>
+      <c r="K462" s="50">
+        <v>45274</v>
+      </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="39">
-        <v>45566</v>
-      </c>
-      <c r="B463" s="20"/>
+      <c r="A463" s="39"/>
+      <c r="B463" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="C463" s="13"/>
-      <c r="D463" s="38"/>
+      <c r="D463" s="38">
+        <v>0.625</v>
+      </c>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
       <c r="G463" s="13" t="str">
@@ -11894,11 +11940,11 @@
       <c r="H463" s="38"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="20"/>
+      <c r="K463" s="50"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="39">
-        <v>45597</v>
+      <c r="A464" s="46" t="s">
+        <v>275</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11916,7 +11962,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -11934,7 +11980,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
-        <v>45658</v>
+        <v>45323</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -11952,7 +11998,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
-        <v>45689</v>
+        <v>45352</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -11970,7 +12016,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39">
-        <v>45717</v>
+        <v>45383</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -11988,7 +12034,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
-        <v>45748</v>
+        <v>45413</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12006,7 +12052,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
-        <v>45778</v>
+        <v>45444</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12024,213 +12070,411 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39">
-        <v>45809</v>
+        <v>45474</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
       <c r="D471" s="38"/>
       <c r="E471" s="9"/>
-      <c r="F471" s="15"/>
-      <c r="G471" s="40" t="str">
+      <c r="F471" s="20"/>
+      <c r="G471" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H471" s="41"/>
+      <c r="H471" s="38"/>
       <c r="I471" s="9"/>
-      <c r="J471" s="12"/>
-      <c r="K471" s="15"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39">
-        <v>45839</v>
+        <v>45505</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
       <c r="D472" s="38"/>
-      <c r="E472" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
-      </c>
+      <c r="E472" s="9"/>
       <c r="F472" s="20"/>
       <c r="G472" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H472" s="38"/>
-      <c r="I472" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I472" s="9"/>
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
-        <v>45870</v>
+        <v>45536</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
       <c r="D473" s="38"/>
-      <c r="E473" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
-      </c>
+      <c r="E473" s="9"/>
       <c r="F473" s="20"/>
       <c r="G473" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H473" s="38"/>
-      <c r="I473" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I473" s="9"/>
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
-        <v>45901</v>
+        <v>45566</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
       <c r="D474" s="38"/>
-      <c r="E474" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
-      </c>
+      <c r="E474" s="9"/>
       <c r="F474" s="20"/>
       <c r="G474" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H474" s="38"/>
-      <c r="I474" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I474" s="9"/>
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39">
-        <v>45931</v>
+        <v>45597</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
       <c r="D475" s="38"/>
-      <c r="E475" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
-      </c>
+      <c r="E475" s="9"/>
       <c r="F475" s="20"/>
       <c r="G475" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H475" s="38"/>
-      <c r="I475" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I475" s="9"/>
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
-        <v>45962</v>
+        <v>45627</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
       <c r="D476" s="38"/>
-      <c r="E476" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
-      </c>
+      <c r="E476" s="9"/>
       <c r="F476" s="20"/>
       <c r="G476" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H476" s="38"/>
-      <c r="I476" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I476" s="9"/>
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39">
-        <v>45992</v>
+        <v>45658</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
       <c r="D477" s="38"/>
-      <c r="E477" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
-      </c>
+      <c r="E477" s="9"/>
       <c r="F477" s="20"/>
       <c r="G477" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H477" s="38"/>
-      <c r="I477" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I477" s="9"/>
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
-        <v>46023</v>
+        <v>45689</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
       <c r="D478" s="38"/>
-      <c r="E478" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
-      </c>
+      <c r="E478" s="9"/>
       <c r="F478" s="20"/>
       <c r="G478" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H478" s="38"/>
-      <c r="I478" s="9">
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="39">
+        <v>45717</v>
+      </c>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="38"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H479" s="38"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="39">
+        <v>45748</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="38"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H480" s="38"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="39">
+        <v>45778</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="38"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="38"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="39">
+        <v>45809</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="38"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="15"/>
+      <c r="G482" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="41"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="12"/>
+      <c r="K482" s="15"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" s="39">
+        <v>45839</v>
+      </c>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="38"/>
+      <c r="E483" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>198.05300000000005</v>
+      </c>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="38"/>
+      <c r="I483" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>244.5</v>
       </c>
-      <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="39">
-        <v>46054</v>
-      </c>
-      <c r="B479" s="15"/>
-      <c r="C479" s="40"/>
-      <c r="D479" s="41"/>
-      <c r="E479" s="9">
+      <c r="J483" s="11"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" s="39">
+        <v>45870</v>
+      </c>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="38"/>
+      <c r="E484" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>208.17800000000005</v>
-      </c>
-      <c r="F479" s="20"/>
-      <c r="G479" s="13" t="str">
+        <v>198.05300000000005</v>
+      </c>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H479" s="38"/>
-      <c r="I479" s="9">
+      <c r="H484" s="38"/>
+      <c r="I484" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>244.5</v>
       </c>
-      <c r="J479" s="11"/>
-      <c r="K479" s="20"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="39">
+        <v>45901</v>
+      </c>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="38"/>
+      <c r="E485" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>198.05300000000005</v>
+      </c>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="38"/>
+      <c r="I485" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="39">
+        <v>45931</v>
+      </c>
+      <c r="B486" s="20"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="38"/>
+      <c r="E486" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>198.05300000000005</v>
+      </c>
+      <c r="F486" s="20"/>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="38"/>
+      <c r="I486" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J486" s="11"/>
+      <c r="K486" s="20"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="39">
+        <v>45962</v>
+      </c>
+      <c r="B487" s="20"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="38"/>
+      <c r="E487" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>198.05300000000005</v>
+      </c>
+      <c r="F487" s="20"/>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="38"/>
+      <c r="I487" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J487" s="11"/>
+      <c r="K487" s="20"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="39">
+        <v>45992</v>
+      </c>
+      <c r="B488" s="20"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="38"/>
+      <c r="E488" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>198.05300000000005</v>
+      </c>
+      <c r="F488" s="20"/>
+      <c r="G488" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H488" s="38"/>
+      <c r="I488" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J488" s="11"/>
+      <c r="K488" s="20"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="39">
+        <v>46023</v>
+      </c>
+      <c r="B489" s="20"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="38"/>
+      <c r="E489" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>198.05300000000005</v>
+      </c>
+      <c r="F489" s="20"/>
+      <c r="G489" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H489" s="38"/>
+      <c r="I489" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J489" s="11"/>
+      <c r="K489" s="20"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" s="39">
+        <v>46054</v>
+      </c>
+      <c r="B490" s="15"/>
+      <c r="C490" s="40"/>
+      <c r="D490" s="41"/>
+      <c r="E490" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>198.05300000000005</v>
+      </c>
+      <c r="F490" s="20"/>
+      <c r="G490" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H490" s="38"/>
+      <c r="I490" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J490" s="11"/>
+      <c r="K490" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12277,7 +12521,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12347,14 +12591,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.77100000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="34">
@@ -12403,7 +12645,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>452.67800000000005</v>
+        <v>442.55300000000005</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
+++ b/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="281">
   <si>
     <t>PERIOD</t>
   </si>
@@ -880,6 +880,12 @@
   </si>
   <si>
     <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-33)</t>
+  </si>
+  <si>
+    <t>UT(0-1-52)</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1610,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K490" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K498" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1933,11 +1939,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K490"/>
+  <dimension ref="A2:K498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A432" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D445" sqref="D445"/>
+      <pane ySplit="3690" topLeftCell="A429" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E439" sqref="E439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2110,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
+        <v>191.75100000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11257,81 +11263,75 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="39">
-        <v>44958</v>
-      </c>
+      <c r="A434" s="39"/>
       <c r="B434" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C434" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D434" s="38"/>
+        <v>280</v>
+      </c>
+      <c r="C434" s="13"/>
+      <c r="D434" s="38">
+        <v>0.23300000000000001</v>
+      </c>
       <c r="E434" s="9"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H434" s="38">
-        <v>2</v>
-      </c>
+      <c r="G434" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H434" s="38"/>
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
-      <c r="K434" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="K434" s="20"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="39"/>
+      <c r="A435" s="39">
+        <v>44958</v>
+      </c>
       <c r="B435" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C435" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="C435" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D435" s="38"/>
       <c r="E435" s="9"/>
       <c r="F435" s="20"/>
-      <c r="G435" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H435" s="38"/>
+      <c r="G435" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H435" s="38">
+        <v>2</v>
+      </c>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
       <c r="K435" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="39">
-        <v>44986</v>
-      </c>
+      <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C436" s="13">
-        <v>1.25</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C436" s="13"/>
       <c r="D436" s="38"/>
       <c r="E436" s="9"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H436" s="38">
-        <v>3</v>
-      </c>
+      <c r="G436" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H436" s="38"/>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
       <c r="K436" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39"/>
       <c r="B437" s="20" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="C437" s="13"/>
       <c r="D437" s="38">
@@ -11347,15 +11347,15 @@
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
       <c r="K437" s="50">
-        <v>45012</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C438" s="13">
         <v>1.25</v>
@@ -11368,21 +11368,23 @@
         <v>1.25</v>
       </c>
       <c r="H438" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="50">
-        <v>45027</v>
+      <c r="K438" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39"/>
       <c r="B439" s="20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C439" s="13"/>
-      <c r="D439" s="38"/>
+      <c r="D439" s="38">
+        <v>1</v>
+      </c>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
       <c r="G439" s="13" t="str">
@@ -11392,140 +11394,134 @@
       <c r="H439" s="38"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="50" t="s">
-        <v>114</v>
+      <c r="K439" s="50">
+        <v>45012</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="39">
-        <v>45047</v>
-      </c>
+      <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C440" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D440" s="38"/>
+        <v>262</v>
+      </c>
+      <c r="C440" s="13"/>
+      <c r="D440" s="38">
+        <v>1</v>
+      </c>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H440" s="38">
-        <v>2</v>
-      </c>
+      <c r="G440" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="38"/>
       <c r="I440" s="9"/>
       <c r="J440" s="11"/>
-      <c r="K440" s="20" t="s">
-        <v>115</v>
+      <c r="K440" s="50">
+        <v>45013</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="39"/>
+      <c r="A441" s="39">
+        <v>45017</v>
+      </c>
       <c r="B441" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C441" s="13"/>
-      <c r="D441" s="38">
-        <v>6</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C441" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D441" s="38"/>
       <c r="E441" s="9"/>
       <c r="F441" s="20"/>
-      <c r="G441" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H441" s="38"/>
+      <c r="G441" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H441" s="38">
+        <v>1</v>
+      </c>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="20" t="s">
-        <v>117</v>
+      <c r="K441" s="50">
+        <v>45027</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="39">
-        <v>45078</v>
-      </c>
+      <c r="A442" s="39"/>
       <c r="B442" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C442" s="13">
-        <v>1.25</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C442" s="13"/>
       <c r="D442" s="38"/>
       <c r="E442" s="9"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H442" s="38">
-        <v>2</v>
-      </c>
+      <c r="G442" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H442" s="38"/>
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
-      <c r="K442" s="20" t="s">
-        <v>118</v>
+      <c r="K442" s="50" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="39">
-        <v>45108</v>
-      </c>
+      <c r="A443" s="39"/>
       <c r="B443" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C443" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D443" s="38"/>
+        <v>262</v>
+      </c>
+      <c r="C443" s="13"/>
+      <c r="D443" s="38">
+        <v>1</v>
+      </c>
       <c r="E443" s="9"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H443" s="38">
-        <v>2</v>
-      </c>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="38"/>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="20" t="s">
-        <v>119</v>
+      <c r="K443" s="50">
+        <v>45020</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="39"/>
+      <c r="A444" s="39">
+        <v>45047</v>
+      </c>
       <c r="B444" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C444" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="C444" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D444" s="38"/>
       <c r="E444" s="9"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G444" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H444" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
-      <c r="K444" s="50">
-        <v>45126</v>
+      <c r="K444" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="C445" s="13"/>
       <c r="D445" s="38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
@@ -11536,86 +11532,86 @@
       <c r="H445" s="38"/>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="50"/>
+      <c r="K445" s="20" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="39">
-        <v>45139</v>
-      </c>
+      <c r="A446" s="39"/>
       <c r="B446" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C446" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D446" s="38"/>
+        <v>262</v>
+      </c>
+      <c r="C446" s="13"/>
+      <c r="D446" s="38">
+        <v>1</v>
+      </c>
       <c r="E446" s="9"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H446" s="38">
-        <v>1</v>
-      </c>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="38"/>
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
       <c r="K446" s="50">
-        <v>45134</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39"/>
       <c r="B447" s="20" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="C447" s="13"/>
-      <c r="D447" s="38"/>
+      <c r="D447" s="38">
+        <v>0.56899999999999995</v>
+      </c>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
       <c r="G447" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H447" s="38">
-        <v>3</v>
-      </c>
+      <c r="H447" s="38"/>
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
-      <c r="K447" s="50" t="s">
-        <v>270</v>
-      </c>
+      <c r="K447" s="50"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="39"/>
+      <c r="A448" s="39">
+        <v>45078</v>
+      </c>
       <c r="B448" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C448" s="13"/>
-      <c r="D448" s="38">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C448" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D448" s="38"/>
       <c r="E448" s="9"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H448" s="38"/>
+      <c r="G448" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H448" s="38">
+        <v>2</v>
+      </c>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="50">
-        <v>45156</v>
+      <c r="K448" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39"/>
       <c r="B449" s="20" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="C449" s="13"/>
       <c r="D449" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
@@ -11626,54 +11622,54 @@
       <c r="H449" s="38"/>
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
-      <c r="K449" s="50"/>
+      <c r="K449" s="50">
+        <v>45078</v>
+      </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="39">
-        <v>45170</v>
-      </c>
+      <c r="A450" s="39"/>
       <c r="B450" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C450" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D450" s="38"/>
+        <v>163</v>
+      </c>
+      <c r="C450" s="13"/>
+      <c r="D450" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E450" s="9"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H450" s="38">
-        <v>1</v>
-      </c>
+      <c r="G450" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H450" s="38"/>
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
-      <c r="K450" s="50">
-        <v>45170</v>
-      </c>
+      <c r="K450" s="50"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="39"/>
+      <c r="A451" s="39">
+        <v>45108</v>
+      </c>
       <c r="B451" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C451" s="13"/>
+      <c r="C451" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D451" s="38"/>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H451" s="38">
         <v>2</v>
       </c>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="50" t="s">
-        <v>271</v>
+      <c r="K451" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
@@ -11695,13 +11691,13 @@
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
       <c r="K452" s="50">
-        <v>45198</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39"/>
       <c r="B453" s="20" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C453" s="13"/>
       <c r="D453" s="38">
@@ -11716,64 +11712,64 @@
       <c r="H453" s="38"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
-      <c r="K453" s="50">
-        <v>45196</v>
-      </c>
+      <c r="K453" s="50"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="39"/>
+      <c r="A454" s="39">
+        <v>45139</v>
+      </c>
       <c r="B454" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C454" s="13"/>
-      <c r="D454" s="38">
-        <v>0.5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C454" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D454" s="38"/>
       <c r="E454" s="9"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H454" s="38"/>
+      <c r="G454" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H454" s="38">
+        <v>1</v>
+      </c>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="50"/>
+      <c r="K454" s="50">
+        <v>45134</v>
+      </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="39">
-        <v>45200</v>
-      </c>
+      <c r="A455" s="39"/>
       <c r="B455" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C455" s="13">
-        <v>1.25</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C455" s="13"/>
       <c r="D455" s="38"/>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G455" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H455" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="20" t="s">
-        <v>272</v>
+      <c r="K455" s="50" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39"/>
       <c r="B456" s="20" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="C456" s="13"/>
       <c r="D456" s="38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
@@ -11784,18 +11780,18 @@
       <c r="H456" s="38"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="20" t="s">
-        <v>273</v>
+      <c r="K456" s="50">
+        <v>45156</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39"/>
       <c r="B457" s="20" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="C457" s="13"/>
       <c r="D457" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
@@ -11806,86 +11802,86 @@
       <c r="H457" s="38"/>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="50">
-        <v>45201</v>
-      </c>
+      <c r="K457" s="50"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="39"/>
+      <c r="A458" s="39">
+        <v>45170</v>
+      </c>
       <c r="B458" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C458" s="13"/>
-      <c r="D458" s="38">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C458" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D458" s="38"/>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H458" s="38"/>
+      <c r="G458" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H458" s="38">
+        <v>1</v>
+      </c>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="50"/>
+      <c r="K458" s="50">
+        <v>45170</v>
+      </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" s="39">
-        <v>45231</v>
-      </c>
+      <c r="A459" s="39"/>
       <c r="B459" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C459" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D459" s="38">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C459" s="13"/>
+      <c r="D459" s="38"/>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H459" s="38"/>
+      <c r="G459" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H459" s="38">
+        <v>2</v>
+      </c>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="50">
-        <v>45264</v>
+      <c r="K459" s="50" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39"/>
       <c r="B460" s="20" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="C460" s="13"/>
-      <c r="D460" s="38">
-        <v>1</v>
-      </c>
+      <c r="D460" s="38"/>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
       <c r="G460" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H460" s="38"/>
+      <c r="H460" s="38">
+        <v>1</v>
+      </c>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
       <c r="K460" s="50">
-        <v>45240</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39"/>
       <c r="B461" s="20" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C461" s="13"/>
       <c r="D461" s="38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E461" s="9"/>
       <c r="F461" s="20"/>
@@ -11896,18 +11892,18 @@
       <c r="H461" s="38"/>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="50"/>
+      <c r="K461" s="50">
+        <v>45196</v>
+      </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="39">
-        <v>45261</v>
-      </c>
+      <c r="A462" s="39"/>
       <c r="B462" s="20" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="C462" s="13"/>
       <c r="D462" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
@@ -11918,37 +11914,43 @@
       <c r="H462" s="38"/>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="50">
-        <v>45274</v>
-      </c>
+      <c r="K462" s="50"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="39"/>
+      <c r="A463" s="39">
+        <v>45200</v>
+      </c>
       <c r="B463" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C463" s="13"/>
-      <c r="D463" s="38">
-        <v>0.625</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D463" s="38"/>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H463" s="38"/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H463" s="38">
+        <v>2</v>
+      </c>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="50"/>
+      <c r="K463" s="20" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="B464" s="20"/>
+      <c r="A464" s="39"/>
+      <c r="B464" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="C464" s="13"/>
-      <c r="D464" s="38"/>
+      <c r="D464" s="38">
+        <v>5</v>
+      </c>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
       <c r="G464" s="13" t="str">
@@ -11958,15 +11960,19 @@
       <c r="H464" s="38"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
+      <c r="K464" s="20" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B465" s="20"/>
+      <c r="A465" s="39"/>
+      <c r="B465" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C465" s="13"/>
-      <c r="D465" s="38"/>
+      <c r="D465" s="38">
+        <v>1</v>
+      </c>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
       <c r="G465" s="13" t="str">
@@ -11976,15 +11982,19 @@
       <c r="H465" s="38"/>
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
-      <c r="K465" s="20"/>
+      <c r="K465" s="50">
+        <v>45201</v>
+      </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B466" s="20"/>
+      <c r="A466" s="39"/>
+      <c r="B466" s="20" t="s">
+        <v>278</v>
+      </c>
       <c r="C466" s="13"/>
-      <c r="D466" s="38"/>
+      <c r="D466" s="38">
+        <v>1</v>
+      </c>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
       <c r="G466" s="13" t="str">
@@ -11994,33 +12004,43 @@
       <c r="H466" s="38"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="20"/>
+      <c r="K466" s="50"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B467" s="20"/>
-      <c r="C467" s="13"/>
-      <c r="D467" s="38"/>
+        <v>45231</v>
+      </c>
+      <c r="B467" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C467" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D467" s="38">
+        <v>1</v>
+      </c>
       <c r="E467" s="9"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G467" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H467" s="38"/>
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
-      <c r="K467" s="20"/>
+      <c r="K467" s="50">
+        <v>45264</v>
+      </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="39">
-        <v>45383</v>
-      </c>
-      <c r="B468" s="20"/>
+      <c r="A468" s="39"/>
+      <c r="B468" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C468" s="13"/>
-      <c r="D468" s="38"/>
+      <c r="D468" s="38">
+        <v>1</v>
+      </c>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
       <c r="G468" s="13" t="str">
@@ -12030,15 +12050,19 @@
       <c r="H468" s="38"/>
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
-      <c r="K468" s="20"/>
+      <c r="K468" s="50">
+        <v>45240</v>
+      </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" s="39">
-        <v>45413</v>
-      </c>
-      <c r="B469" s="20"/>
+      <c r="A469" s="39"/>
+      <c r="B469" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="C469" s="13"/>
-      <c r="D469" s="38"/>
+      <c r="D469" s="38">
+        <v>1.5</v>
+      </c>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
       <c r="G469" s="13" t="str">
@@ -12048,15 +12072,19 @@
       <c r="H469" s="38"/>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
-      <c r="K469" s="20"/>
+      <c r="K469" s="50"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
-        <v>45444</v>
-      </c>
-      <c r="B470" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B470" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C470" s="13"/>
-      <c r="D470" s="38"/>
+      <c r="D470" s="38">
+        <v>1</v>
+      </c>
       <c r="E470" s="9"/>
       <c r="F470" s="20"/>
       <c r="G470" s="13" t="str">
@@ -12066,15 +12094,19 @@
       <c r="H470" s="38"/>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
-      <c r="K470" s="20"/>
+      <c r="K470" s="50">
+        <v>45274</v>
+      </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="39">
-        <v>45474</v>
-      </c>
-      <c r="B471" s="20"/>
+      <c r="A471" s="39"/>
+      <c r="B471" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="C471" s="13"/>
-      <c r="D471" s="38"/>
+      <c r="D471" s="38">
+        <v>0.625</v>
+      </c>
       <c r="E471" s="9"/>
       <c r="F471" s="20"/>
       <c r="G471" s="13" t="str">
@@ -12084,11 +12116,11 @@
       <c r="H471" s="38"/>
       <c r="I471" s="9"/>
       <c r="J471" s="11"/>
-      <c r="K471" s="20"/>
+      <c r="K471" s="50"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="39">
-        <v>45505</v>
+      <c r="A472" s="46" t="s">
+        <v>275</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12106,7 +12138,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
-        <v>45536</v>
+        <v>45292</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12124,7 +12156,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
-        <v>45566</v>
+        <v>45323</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12142,7 +12174,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39">
-        <v>45597</v>
+        <v>45352</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12160,7 +12192,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
-        <v>45627</v>
+        <v>45383</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12178,7 +12210,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39">
-        <v>45658</v>
+        <v>45413</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12196,7 +12228,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
-        <v>45689</v>
+        <v>45444</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12214,7 +12246,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39">
-        <v>45717</v>
+        <v>45474</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12232,7 +12264,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39">
-        <v>45748</v>
+        <v>45505</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12250,7 +12282,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39">
-        <v>45778</v>
+        <v>45536</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12268,213 +12300,357 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
-        <v>45809</v>
+        <v>45566</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
       <c r="D482" s="38"/>
       <c r="E482" s="9"/>
-      <c r="F482" s="15"/>
-      <c r="G482" s="40" t="str">
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H482" s="41"/>
+      <c r="H482" s="38"/>
       <c r="I482" s="9"/>
-      <c r="J482" s="12"/>
-      <c r="K482" s="15"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
-        <v>45839</v>
+        <v>45597</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
       <c r="D483" s="38"/>
-      <c r="E483" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
-      </c>
+      <c r="E483" s="9"/>
       <c r="F483" s="20"/>
       <c r="G483" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H483" s="38"/>
-      <c r="I483" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I483" s="9"/>
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39">
-        <v>45870</v>
+        <v>45627</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
       <c r="D484" s="38"/>
-      <c r="E484" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
-      </c>
+      <c r="E484" s="9"/>
       <c r="F484" s="20"/>
       <c r="G484" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H484" s="38"/>
-      <c r="I484" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I484" s="9"/>
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39">
-        <v>45901</v>
+        <v>45658</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
       <c r="D485" s="38"/>
-      <c r="E485" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
-      </c>
+      <c r="E485" s="9"/>
       <c r="F485" s="20"/>
       <c r="G485" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H485" s="38"/>
-      <c r="I485" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I485" s="9"/>
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39">
-        <v>45931</v>
+        <v>45689</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
       <c r="D486" s="38"/>
-      <c r="E486" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
-      </c>
+      <c r="E486" s="9"/>
       <c r="F486" s="20"/>
       <c r="G486" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H486" s="38"/>
-      <c r="I486" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I486" s="9"/>
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39">
-        <v>45962</v>
+        <v>45717</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
       <c r="D487" s="38"/>
-      <c r="E487" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
-      </c>
+      <c r="E487" s="9"/>
       <c r="F487" s="20"/>
       <c r="G487" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H487" s="38"/>
-      <c r="I487" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I487" s="9"/>
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39">
-        <v>45992</v>
+        <v>45748</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
       <c r="D488" s="38"/>
-      <c r="E488" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
-      </c>
+      <c r="E488" s="9"/>
       <c r="F488" s="20"/>
       <c r="G488" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H488" s="38"/>
-      <c r="I488" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
-      </c>
+      <c r="I488" s="9"/>
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39">
-        <v>46023</v>
+        <v>45778</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
       <c r="D489" s="38"/>
-      <c r="E489" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
-      </c>
+      <c r="E489" s="9"/>
       <c r="F489" s="20"/>
       <c r="G489" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H489" s="38"/>
-      <c r="I489" s="9">
+      <c r="I489" s="9"/>
+      <c r="J489" s="11"/>
+      <c r="K489" s="20"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" s="39">
+        <v>45809</v>
+      </c>
+      <c r="B490" s="20"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="38"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="15"/>
+      <c r="G490" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H490" s="41"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="12"/>
+      <c r="K490" s="15"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" s="39">
+        <v>45839</v>
+      </c>
+      <c r="B491" s="20"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="38"/>
+      <c r="E491" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>191.75100000000006</v>
+      </c>
+      <c r="F491" s="20"/>
+      <c r="G491" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H491" s="38"/>
+      <c r="I491" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>244.5</v>
       </c>
-      <c r="J489" s="11"/>
-      <c r="K489" s="20"/>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="39">
-        <v>46054</v>
-      </c>
-      <c r="B490" s="15"/>
-      <c r="C490" s="40"/>
-      <c r="D490" s="41"/>
-      <c r="E490" s="9">
+      <c r="J491" s="11"/>
+      <c r="K491" s="20"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" s="39">
+        <v>45870</v>
+      </c>
+      <c r="B492" s="20"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="38"/>
+      <c r="E492" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.05300000000005</v>
-      </c>
-      <c r="F490" s="20"/>
-      <c r="G490" s="13" t="str">
+        <v>191.75100000000006</v>
+      </c>
+      <c r="F492" s="20"/>
+      <c r="G492" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H490" s="38"/>
-      <c r="I490" s="9">
+      <c r="H492" s="38"/>
+      <c r="I492" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>244.5</v>
       </c>
-      <c r="J490" s="11"/>
-      <c r="K490" s="20"/>
+      <c r="J492" s="11"/>
+      <c r="K492" s="20"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493" s="39">
+        <v>45901</v>
+      </c>
+      <c r="B493" s="20"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="38"/>
+      <c r="E493" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>191.75100000000006</v>
+      </c>
+      <c r="F493" s="20"/>
+      <c r="G493" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H493" s="38"/>
+      <c r="I493" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J493" s="11"/>
+      <c r="K493" s="20"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494" s="39">
+        <v>45931</v>
+      </c>
+      <c r="B494" s="20"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="38"/>
+      <c r="E494" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>191.75100000000006</v>
+      </c>
+      <c r="F494" s="20"/>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H494" s="38"/>
+      <c r="I494" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J494" s="11"/>
+      <c r="K494" s="20"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" s="39">
+        <v>45962</v>
+      </c>
+      <c r="B495" s="20"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="38"/>
+      <c r="E495" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>191.75100000000006</v>
+      </c>
+      <c r="F495" s="20"/>
+      <c r="G495" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H495" s="38"/>
+      <c r="I495" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J495" s="11"/>
+      <c r="K495" s="20"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" s="39">
+        <v>45992</v>
+      </c>
+      <c r="B496" s="20"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="38"/>
+      <c r="E496" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>191.75100000000006</v>
+      </c>
+      <c r="F496" s="20"/>
+      <c r="G496" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H496" s="38"/>
+      <c r="I496" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J496" s="11"/>
+      <c r="K496" s="20"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497" s="39">
+        <v>46023</v>
+      </c>
+      <c r="B497" s="20"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="38"/>
+      <c r="E497" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>191.75100000000006</v>
+      </c>
+      <c r="F497" s="20"/>
+      <c r="G497" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H497" s="38"/>
+      <c r="I497" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J497" s="11"/>
+      <c r="K497" s="20"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498" s="39">
+        <v>46054</v>
+      </c>
+      <c r="B498" s="15"/>
+      <c r="C498" s="40"/>
+      <c r="D498" s="41"/>
+      <c r="E498" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>191.75100000000006</v>
+      </c>
+      <c r="F498" s="20"/>
+      <c r="G498" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H498" s="38"/>
+      <c r="I498" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.5</v>
+      </c>
+      <c r="J498" s="11"/>
+      <c r="K498" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12591,12 +12767,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>52</v>
+      </c>
       <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.625</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="34">
@@ -12645,7 +12823,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>442.55300000000005</v>
+        <v>436.25100000000009</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
+++ b/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3686480-D21E-401F-9E78-A317E28AB866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="282">
   <si>
     <t>PERIOD</t>
   </si>
@@ -887,11 +888,14 @@
   <si>
     <t>UT(0-1-52)</t>
   </si>
+  <si>
+    <t>1/25,26/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1593,7 +1597,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1610,25 +1614,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K498" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K498" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1935,33 +1939,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A429" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E439" sqref="E439"/>
+      <pane ySplit="3696" topLeftCell="A468" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K474" sqref="K474"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +1988,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2028,7 +2032,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2036,7 +2040,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2049,7 +2053,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2066,7 +2070,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2110,7 +2114,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2120,12 +2124,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>124</v>
       </c>
@@ -2147,7 +2151,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>34850</v>
       </c>
@@ -2167,7 +2171,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>34880</v>
       </c>
@@ -2187,7 +2191,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>34911</v>
       </c>
@@ -2207,7 +2211,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>34942</v>
       </c>
@@ -2227,7 +2231,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>34972</v>
       </c>
@@ -2247,7 +2251,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>35003</v>
       </c>
@@ -2267,7 +2271,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>35033</v>
       </c>
@@ -2287,7 +2291,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>35064</v>
       </c>
@@ -2307,7 +2311,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>123</v>
       </c>
@@ -2322,7 +2326,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>35095</v>
       </c>
@@ -2342,7 +2346,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>35124</v>
       </c>
@@ -2362,7 +2366,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>35155</v>
       </c>
@@ -2382,7 +2386,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>35185</v>
       </c>
@@ -2402,7 +2406,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>35216</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>35214</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>125</v>
@@ -2448,7 +2452,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>35246</v>
       </c>
@@ -2468,7 +2472,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>35277</v>
       </c>
@@ -2488,7 +2492,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>35308</v>
       </c>
@@ -2508,7 +2512,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>35338</v>
       </c>
@@ -2528,7 +2532,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>35369</v>
       </c>
@@ -2548,7 +2552,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>35399</v>
       </c>
@@ -2568,7 +2572,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>35430</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>35408</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>126</v>
@@ -2614,7 +2618,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>127</v>
       </c>
@@ -2632,7 +2636,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>35461</v>
       </c>
@@ -2652,7 +2656,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>35489</v>
       </c>
@@ -2672,7 +2676,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>35520</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>35501</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>35550</v>
       </c>
@@ -2718,7 +2722,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>35581</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>35611</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>35642</v>
       </c>
@@ -2796,7 +2800,7 @@
         <v>35634</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>108</v>
@@ -2818,7 +2822,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>35673</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>35703</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>131</v>
@@ -2886,7 +2890,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>35734</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>35751</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>35764</v>
       </c>
@@ -2932,7 +2936,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>35795</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>134</v>
@@ -2975,7 +2979,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>135</v>
@@ -2992,7 +2996,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
         <v>137</v>
       </c>
@@ -3010,7 +3014,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>35826</v>
       </c>
@@ -3034,7 +3038,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>35854</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>140</v>
@@ -3080,7 +3084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>35885</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>35915</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>110</v>
@@ -3154,7 +3158,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>35946</v>
       </c>
@@ -3174,7 +3178,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>35976</v>
       </c>
@@ -3194,7 +3198,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>36007</v>
       </c>
@@ -3218,7 +3222,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>36038</v>
       </c>
@@ -3238,7 +3242,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>36068</v>
       </c>
@@ -3262,7 +3266,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>36099</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>36129</v>
       </c>
@@ -3312,7 +3316,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>36160</v>
       </c>
@@ -3336,7 +3340,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="46" t="s">
         <v>150</v>
       </c>
@@ -3354,7 +3358,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>36191</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>36168</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>151</v>
@@ -3400,7 +3404,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="50"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>36219</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>36250</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>36280</v>
       </c>
@@ -3472,7 +3476,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>36311</v>
       </c>
@@ -3492,7 +3496,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>36341</v>
       </c>
@@ -3512,7 +3516,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>36372</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>36403</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>36433</v>
       </c>
@@ -3584,7 +3588,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>36464</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>36494</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>36525</v>
       </c>
@@ -3654,7 +3658,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="46" t="s">
         <v>158</v>
       </c>
@@ -3672,7 +3676,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>36556</v>
       </c>
@@ -3692,7 +3696,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>36585</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <v>36616</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>161</v>
@@ -3764,7 +3768,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>36646</v>
       </c>
@@ -3784,7 +3788,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>36677</v>
       </c>
@@ -3804,7 +3808,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>36707</v>
       </c>
@@ -3828,7 +3832,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>36738</v>
       </c>
@@ -3852,7 +3856,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>36769</v>
       </c>
@@ -3872,7 +3876,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>36799</v>
       </c>
@@ -3896,7 +3900,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <v>36830</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>36819</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>36860</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>165</v>
@@ -3967,7 +3971,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>165</v>
@@ -3986,7 +3990,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>169</v>
@@ -4006,7 +4010,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>36891</v>
       </c>
@@ -4026,7 +4030,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="46" t="s">
         <v>170</v>
       </c>
@@ -4044,7 +4048,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>36922</v>
       </c>
@@ -4068,7 +4072,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>36950</v>
       </c>
@@ -4094,7 +4098,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>108</v>
@@ -4116,7 +4120,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>161</v>
@@ -4136,7 +4140,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>109</v>
@@ -4156,7 +4160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>36981</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>162</v>
@@ -4202,7 +4206,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>37011</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>177</v>
@@ -4248,7 +4252,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>37042</v>
       </c>
@@ -4274,7 +4278,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>37072</v>
       </c>
@@ -4298,7 +4302,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>163</v>
@@ -4318,7 +4322,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>37103</v>
       </c>
@@ -4338,7 +4342,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <v>37134</v>
       </c>
@@ -4358,7 +4362,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>37164</v>
       </c>
@@ -4378,7 +4382,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>37195</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>37225</v>
       </c>
@@ -4418,7 +4422,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <v>37256</v>
       </c>
@@ -4438,7 +4442,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="46" t="s">
         <v>181</v>
       </c>
@@ -4456,7 +4460,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <v>37287</v>
       </c>
@@ -4476,7 +4480,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>37315</v>
       </c>
@@ -4496,7 +4500,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <v>37346</v>
       </c>
@@ -4516,7 +4520,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>37376</v>
       </c>
@@ -4542,7 +4546,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>37407</v>
       </c>
@@ -4562,7 +4566,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>37437</v>
       </c>
@@ -4582,7 +4586,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>37468</v>
       </c>
@@ -4602,7 +4606,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <v>37499</v>
       </c>
@@ -4622,7 +4626,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <v>37529</v>
       </c>
@@ -4642,7 +4646,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>37560</v>
       </c>
@@ -4668,7 +4672,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <v>37590</v>
       </c>
@@ -4688,7 +4692,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>37621</v>
       </c>
@@ -4712,7 +4716,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="46" t="s">
         <v>184</v>
       </c>
@@ -4730,7 +4734,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>37652</v>
       </c>
@@ -4750,7 +4754,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>37680</v>
       </c>
@@ -4770,7 +4774,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <v>37711</v>
       </c>
@@ -4794,7 +4798,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>37741</v>
       </c>
@@ -4818,7 +4822,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>37772</v>
       </c>
@@ -4842,7 +4846,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <v>37802</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>37833</v>
       </c>
@@ -4888,7 +4892,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>37864</v>
       </c>
@@ -4908,7 +4912,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>37894</v>
       </c>
@@ -4928,7 +4932,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>37925</v>
       </c>
@@ -4948,7 +4952,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>37955</v>
       </c>
@@ -4974,7 +4978,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <v>37986</v>
       </c>
@@ -4994,7 +4998,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="46" t="s">
         <v>189</v>
       </c>
@@ -5012,7 +5016,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>38017</v>
       </c>
@@ -5032,7 +5036,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <v>38046</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>38077</v>
       </c>
@@ -5076,7 +5080,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>38107</v>
       </c>
@@ -5096,7 +5100,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>38138</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>38168</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <v>38199</v>
       </c>
@@ -5170,7 +5174,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <v>38230</v>
       </c>
@@ -5194,7 +5198,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <v>38260</v>
       </c>
@@ -5218,7 +5222,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>38291</v>
       </c>
@@ -5238,7 +5242,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>38321</v>
       </c>
@@ -5258,7 +5262,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <v>38352</v>
       </c>
@@ -5278,7 +5282,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="46" t="s">
         <v>195</v>
       </c>
@@ -5296,7 +5300,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <v>38383</v>
       </c>
@@ -5322,7 +5326,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>38411</v>
       </c>
@@ -5342,7 +5346,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>38442</v>
       </c>
@@ -5362,7 +5366,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>38472</v>
       </c>
@@ -5382,7 +5386,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>38503</v>
       </c>
@@ -5402,7 +5406,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <v>38533</v>
       </c>
@@ -5422,7 +5426,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <v>38564</v>
       </c>
@@ -5442,7 +5446,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <v>38595</v>
       </c>
@@ -5462,7 +5466,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>38625</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>38656</v>
       </c>
@@ -5508,7 +5512,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <v>38686</v>
       </c>
@@ -5528,7 +5532,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <v>38717</v>
       </c>
@@ -5548,7 +5552,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="46" t="s">
         <v>198</v>
       </c>
@@ -5566,7 +5570,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <v>38748</v>
       </c>
@@ -5586,7 +5590,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>38776</v>
       </c>
@@ -5606,7 +5610,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>38807</v>
       </c>
@@ -5626,7 +5630,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>38837</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>38868</v>
       </c>
@@ -5672,7 +5676,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <v>38898</v>
       </c>
@@ -5692,7 +5696,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>38929</v>
       </c>
@@ -5712,7 +5716,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>38960</v>
       </c>
@@ -5738,7 +5742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>38990</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>39021</v>
       </c>
@@ -5782,7 +5786,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>39051</v>
       </c>
@@ -5802,7 +5806,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <v>39082</v>
       </c>
@@ -5822,7 +5826,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="46" t="s">
         <v>202</v>
       </c>
@@ -5840,7 +5844,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>39113</v>
       </c>
@@ -5860,7 +5864,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>39141</v>
       </c>
@@ -5880,7 +5884,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <v>39172</v>
       </c>
@@ -5900,7 +5904,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>39202</v>
       </c>
@@ -5920,7 +5924,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>39233</v>
       </c>
@@ -5940,7 +5944,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <v>39263</v>
       </c>
@@ -5960,7 +5964,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <v>39294</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <v>39325</v>
       </c>
@@ -6006,7 +6010,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>39355</v>
       </c>
@@ -6026,7 +6030,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <v>39386</v>
       </c>
@@ -6046,7 +6050,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <v>39416</v>
       </c>
@@ -6072,7 +6076,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>39447</v>
       </c>
@@ -6092,7 +6096,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="46" t="s">
         <v>206</v>
       </c>
@@ -6110,7 +6114,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>39478</v>
       </c>
@@ -6130,7 +6134,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>39507</v>
       </c>
@@ -6150,7 +6154,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>39538</v>
       </c>
@@ -6170,7 +6174,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>39568</v>
       </c>
@@ -6190,7 +6194,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>39599</v>
       </c>
@@ -6210,7 +6214,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <v>39629</v>
       </c>
@@ -6230,7 +6234,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>39660</v>
       </c>
@@ -6250,7 +6254,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <v>39691</v>
       </c>
@@ -6270,7 +6274,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>39721</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>125</v>
@@ -6318,7 +6322,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <v>39752</v>
       </c>
@@ -6338,7 +6342,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>39782</v>
       </c>
@@ -6358,7 +6362,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <v>39813</v>
       </c>
@@ -6378,7 +6382,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="46" t="s">
         <v>209</v>
       </c>
@@ -6396,7 +6400,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <v>39844</v>
       </c>
@@ -6416,7 +6420,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>39872</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>39903</v>
       </c>
@@ -6460,7 +6464,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>39933</v>
       </c>
@@ -6480,7 +6484,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <v>39964</v>
       </c>
@@ -6500,7 +6504,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <v>39994</v>
       </c>
@@ -6520,7 +6524,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <v>40025</v>
       </c>
@@ -6540,7 +6544,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>40056</v>
       </c>
@@ -6560,7 +6564,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>40086</v>
       </c>
@@ -6580,7 +6584,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>40117</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <v>40147</v>
       </c>
@@ -6626,7 +6630,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <v>40178</v>
       </c>
@@ -6646,7 +6650,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="46" t="s">
         <v>212</v>
       </c>
@@ -6664,7 +6668,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>40209</v>
       </c>
@@ -6684,7 +6688,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <v>40237</v>
       </c>
@@ -6704,7 +6708,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>40268</v>
       </c>
@@ -6724,7 +6728,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <v>40298</v>
       </c>
@@ -6744,7 +6748,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <v>40329</v>
       </c>
@@ -6764,7 +6768,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <v>40359</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <v>40390</v>
       </c>
@@ -6808,7 +6812,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>40421</v>
       </c>
@@ -6828,7 +6832,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>40451</v>
       </c>
@@ -6848,7 +6852,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <v>40482</v>
       </c>
@@ -6874,7 +6878,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <v>40512</v>
       </c>
@@ -6894,7 +6898,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <v>40543</v>
       </c>
@@ -6914,7 +6918,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="46" t="s">
         <v>215</v>
       </c>
@@ -6932,7 +6936,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <v>40574</v>
       </c>
@@ -6952,7 +6956,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <v>40602</v>
       </c>
@@ -6972,7 +6976,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>40633</v>
       </c>
@@ -6992,7 +6996,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>40663</v>
       </c>
@@ -7012,7 +7016,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <v>40694</v>
       </c>
@@ -7032,7 +7036,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>40724</v>
       </c>
@@ -7052,7 +7056,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <v>40755</v>
       </c>
@@ -7072,7 +7076,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <v>40786</v>
       </c>
@@ -7092,7 +7096,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <v>40816</v>
       </c>
@@ -7112,7 +7116,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <v>40847</v>
       </c>
@@ -7132,7 +7136,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>40877</v>
       </c>
@@ -7152,7 +7156,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>40908</v>
       </c>
@@ -7174,7 +7178,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="46" t="s">
         <v>216</v>
       </c>
@@ -7192,7 +7196,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <v>40939</v>
       </c>
@@ -7212,7 +7216,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>40968</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <v>40999</v>
       </c>
@@ -7256,7 +7260,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>41029</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>41060</v>
       </c>
@@ -7300,7 +7304,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>41090</v>
       </c>
@@ -7320,7 +7324,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <v>41121</v>
       </c>
@@ -7340,7 +7344,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>41152</v>
       </c>
@@ -7360,7 +7364,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>41182</v>
       </c>
@@ -7380,7 +7384,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <v>41213</v>
       </c>
@@ -7404,7 +7408,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>125</v>
@@ -7426,7 +7430,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <v>41243</v>
       </c>
@@ -7446,7 +7450,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <v>41274</v>
       </c>
@@ -7466,7 +7470,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="46" t="s">
         <v>221</v>
       </c>
@@ -7484,7 +7488,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>41305</v>
       </c>
@@ -7504,7 +7508,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <v>41333</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>41364</v>
       </c>
@@ -7548,7 +7552,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <v>41394</v>
       </c>
@@ -7568,7 +7572,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>41425</v>
       </c>
@@ -7588,7 +7592,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <v>41455</v>
       </c>
@@ -7608,7 +7612,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <v>41486</v>
       </c>
@@ -7628,7 +7632,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <v>41517</v>
       </c>
@@ -7648,7 +7652,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>41547</v>
       </c>
@@ -7674,7 +7678,7 @@
         <v>41529</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>41578</v>
       </c>
@@ -7694,7 +7698,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <v>41608</v>
       </c>
@@ -7718,7 +7722,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>125</v>
@@ -7738,7 +7742,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <v>41639</v>
       </c>
@@ -7758,7 +7762,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="46" t="s">
         <v>225</v>
       </c>
@@ -7776,7 +7780,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>41670</v>
       </c>
@@ -7796,7 +7800,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <v>41698</v>
       </c>
@@ -7822,7 +7826,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>109</v>
@@ -7839,7 +7843,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>109</v>
@@ -7856,7 +7860,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>41729</v>
       </c>
@@ -7876,7 +7880,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23">
         <v>41759</v>
       </c>
@@ -7896,7 +7900,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <v>41790</v>
       </c>
@@ -7916,7 +7920,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <v>41820</v>
       </c>
@@ -7936,7 +7940,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <v>41851</v>
       </c>
@@ -7962,7 +7966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <v>41882</v>
       </c>
@@ -7982,7 +7986,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <v>41912</v>
       </c>
@@ -8002,7 +8006,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <v>41943</v>
       </c>
@@ -8022,7 +8026,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <v>41973</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>42004</v>
       </c>
@@ -8068,7 +8072,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="46" t="s">
         <v>230</v>
       </c>
@@ -8086,7 +8090,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <v>42035</v>
       </c>
@@ -8106,7 +8110,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>42063</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <v>42094</v>
       </c>
@@ -8154,7 +8158,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <v>42124</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>234</v>
@@ -8198,7 +8202,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>42155</v>
       </c>
@@ -8222,7 +8226,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <v>42185</v>
       </c>
@@ -8248,7 +8252,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>42216</v>
       </c>
@@ -8268,7 +8272,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <v>42247</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>42277</v>
       </c>
@@ -8314,7 +8318,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <v>42308</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <v>42338</v>
       </c>
@@ -8360,7 +8364,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <v>42369</v>
       </c>
@@ -8380,7 +8384,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="46" t="s">
         <v>239</v>
       </c>
@@ -8398,7 +8402,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <v>42400</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>112</v>
@@ -8446,7 +8450,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>42429</v>
       </c>
@@ -8472,7 +8476,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>42460</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>243</v>
@@ -8520,7 +8524,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <v>42490</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>42521</v>
       </c>
@@ -8564,7 +8568,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>42551</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>100</v>
@@ -8612,7 +8616,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <v>42582</v>
       </c>
@@ -8632,7 +8636,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <v>42613</v>
       </c>
@@ -8652,7 +8656,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <v>42643</v>
       </c>
@@ -8672,7 +8676,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <v>42674</v>
       </c>
@@ -8698,7 +8702,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <v>42704</v>
       </c>
@@ -8722,7 +8726,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <v>42735</v>
       </c>
@@ -8742,7 +8746,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="46" t="s">
         <v>250</v>
       </c>
@@ -8760,7 +8764,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <v>42766</v>
       </c>
@@ -8780,7 +8784,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>42794</v>
       </c>
@@ -8806,7 +8810,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>109</v>
@@ -8826,7 +8830,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>42825</v>
       </c>
@@ -8852,7 +8856,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>109</v>
@@ -8872,7 +8876,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <v>42855</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>109</v>
@@ -8918,7 +8922,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <v>42886</v>
       </c>
@@ -8938,7 +8942,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <v>42916</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <v>42947</v>
       </c>
@@ -8990,7 +8994,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>110</v>
@@ -9009,7 +9013,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>110</v>
@@ -9028,7 +9032,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <v>42978</v>
       </c>
@@ -9048,7 +9052,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <v>43008</v>
       </c>
@@ -9074,7 +9078,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <v>43039</v>
       </c>
@@ -9100,7 +9104,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>125</v>
@@ -9122,7 +9126,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>110</v>
@@ -9144,7 +9148,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <v>43069</v>
       </c>
@@ -9168,7 +9172,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>43100</v>
       </c>
@@ -9188,7 +9192,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23" t="s">
         <v>47</v>
       </c>
@@ -9206,7 +9210,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="39">
         <v>43101</v>
       </c>
@@ -9232,7 +9236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="39">
         <v>43132</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="39"/>
       <c r="B343" s="20" t="s">
         <v>49</v>
@@ -9280,7 +9284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>52</v>
@@ -9300,7 +9304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="39">
         <v>43160</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="49">
         <v>43191</v>
       </c>
@@ -9346,7 +9350,7 @@
       <c r="J346" s="12"/>
       <c r="K346" s="15"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="39">
         <v>43221</v>
       </c>
@@ -9368,7 +9372,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -9388,7 +9392,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="39"/>
       <c r="B349" s="20" t="s">
         <v>58</v>
@@ -9412,7 +9416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="39">
         <v>43252</v>
       </c>
@@ -9438,7 +9442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="39">
         <v>43282</v>
       </c>
@@ -9458,7 +9462,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="39">
         <v>43313</v>
       </c>
@@ -9484,7 +9488,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>49</v>
@@ -9508,7 +9512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="39">
         <v>43344</v>
       </c>
@@ -9528,7 +9532,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="39">
         <v>43374</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="39"/>
       <c r="B356" s="20" t="s">
         <v>48</v>
@@ -9574,7 +9578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="39"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -9598,7 +9602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="39">
         <v>43405</v>
       </c>
@@ -9624,7 +9628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="39">
         <v>43435</v>
       </c>
@@ -9644,7 +9648,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="46" t="s">
         <v>68</v>
       </c>
@@ -9662,7 +9666,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="39">
         <v>43466</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39">
         <v>43497</v>
       </c>
@@ -9712,7 +9716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="39">
         <v>43525</v>
       </c>
@@ -9732,7 +9736,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="39">
         <v>43556</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39"/>
       <c r="B365" s="20" t="s">
         <v>52</v>
@@ -9776,7 +9780,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39"/>
       <c r="B366" s="20" t="s">
         <v>60</v>
@@ -9800,7 +9804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="39">
         <v>43586</v>
       </c>
@@ -9820,7 +9824,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39">
         <v>43617</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39">
         <v>43647</v>
       </c>
@@ -9866,7 +9870,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39">
         <v>43678</v>
       </c>
@@ -9886,7 +9890,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39">
         <v>43709</v>
       </c>
@@ -9912,7 +9916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="39">
         <v>43739</v>
       </c>
@@ -9932,7 +9936,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39">
         <v>43770</v>
       </c>
@@ -9952,7 +9956,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39">
         <v>43800</v>
       </c>
@@ -9976,7 +9980,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="46" t="s">
         <v>78</v>
       </c>
@@ -9994,7 +9998,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="39">
         <v>43831</v>
       </c>
@@ -10018,7 +10022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="39">
         <v>43862</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="39">
         <v>43525</v>
       </c>
@@ -10064,7 +10068,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="39">
         <v>43922</v>
       </c>
@@ -10088,7 +10092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="39">
         <v>43983</v>
       </c>
@@ -10108,7 +10112,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="39">
         <v>44013</v>
       </c>
@@ -10128,7 +10132,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="39">
         <v>44044</v>
       </c>
@@ -10148,7 +10152,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="39">
         <v>44075</v>
       </c>
@@ -10172,7 +10176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="39"/>
       <c r="B384" s="20" t="s">
         <v>49</v>
@@ -10196,7 +10200,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="39">
         <v>44105</v>
       </c>
@@ -10216,7 +10220,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="39">
         <v>44136</v>
       </c>
@@ -10236,7 +10240,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="39">
         <v>44166</v>
       </c>
@@ -10260,7 +10264,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="46" t="s">
         <v>86</v>
       </c>
@@ -10278,7 +10282,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="39">
         <v>44197</v>
       </c>
@@ -10298,7 +10302,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="39">
         <v>44228</v>
       </c>
@@ -10318,7 +10322,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="39">
         <v>44256</v>
       </c>
@@ -10338,7 +10342,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="39">
         <v>44287</v>
       </c>
@@ -10358,7 +10362,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="39">
         <v>44317</v>
       </c>
@@ -10378,7 +10382,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="39">
         <v>44348</v>
       </c>
@@ -10398,7 +10402,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="39">
         <v>44378</v>
       </c>
@@ -10418,7 +10422,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="39">
         <v>44409</v>
       </c>
@@ -10440,7 +10444,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="39"/>
       <c r="B397" s="20" t="s">
         <v>49</v>
@@ -10460,7 +10464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="39">
         <v>44440</v>
       </c>
@@ -10484,7 +10488,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="39">
         <v>44470</v>
       </c>
@@ -10504,7 +10508,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="39">
         <v>44501</v>
       </c>
@@ -10530,7 +10534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="39"/>
       <c r="B401" s="20" t="s">
         <v>52</v>
@@ -10550,7 +10554,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="39">
         <v>44531</v>
       </c>
@@ -10570,7 +10574,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="46" t="s">
         <v>90</v>
       </c>
@@ -10588,7 +10592,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="39">
         <v>44562</v>
       </c>
@@ -10608,7 +10612,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="39">
         <v>44593</v>
       </c>
@@ -10628,7 +10632,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="39">
         <v>44621</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>49</v>
@@ -10676,7 +10680,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="39"/>
       <c r="B408" s="20" t="s">
         <v>262</v>
@@ -10698,7 +10702,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="39">
         <v>44652</v>
       </c>
@@ -10724,7 +10728,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="39">
         <v>44682</v>
       </c>
@@ -10748,7 +10752,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="39">
         <v>44713</v>
       </c>
@@ -10774,7 +10778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="39"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -10796,7 +10800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="39"/>
       <c r="B413" s="20" t="s">
         <v>48</v>
@@ -10818,7 +10822,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>60</v>
@@ -10840,7 +10844,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="39">
         <v>44743</v>
       </c>
@@ -10860,7 +10864,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="39">
         <v>44774</v>
       </c>
@@ -10886,7 +10890,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>49</v>
@@ -10910,7 +10914,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>262</v>
@@ -10932,7 +10936,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="39"/>
       <c r="B419" s="20" t="s">
         <v>169</v>
@@ -10952,7 +10956,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="50"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="39">
         <v>44805</v>
       </c>
@@ -10978,7 +10982,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>52</v>
@@ -10998,7 +11002,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="39"/>
       <c r="B422" s="20" t="s">
         <v>264</v>
@@ -11020,7 +11024,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>265</v>
@@ -11040,7 +11044,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="50"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="39">
         <v>44844</v>
       </c>
@@ -11066,7 +11070,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="39"/>
       <c r="B425" s="20" t="s">
         <v>165</v>
@@ -11088,7 +11092,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="39"/>
       <c r="B426" s="20" t="s">
         <v>265</v>
@@ -11108,7 +11112,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="39">
         <v>44866</v>
       </c>
@@ -11128,7 +11132,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="39">
         <v>44896</v>
       </c>
@@ -11154,7 +11158,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="39"/>
       <c r="B429" s="20" t="s">
         <v>102</v>
@@ -11176,7 +11180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="39"/>
       <c r="B430" s="20" t="s">
         <v>120</v>
@@ -11198,7 +11202,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="39"/>
       <c r="B431" s="20" t="s">
         <v>122</v>
@@ -11218,7 +11222,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="46" t="s">
         <v>104</v>
       </c>
@@ -11236,7 +11240,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="39">
         <v>44927</v>
       </c>
@@ -11262,7 +11266,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="39"/>
       <c r="B434" s="20" t="s">
         <v>280</v>
@@ -11282,7 +11286,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="39">
         <v>44958</v>
       </c>
@@ -11308,7 +11312,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
         <v>109</v>
@@ -11328,7 +11332,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="39"/>
       <c r="B437" s="20" t="s">
         <v>262</v>
@@ -11350,7 +11354,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="39">
         <v>44986</v>
       </c>
@@ -11376,7 +11380,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="39"/>
       <c r="B439" s="20" t="s">
         <v>113</v>
@@ -11398,7 +11402,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>262</v>
@@ -11420,7 +11424,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="39">
         <v>45017</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="39"/>
       <c r="B442" s="20" t="s">
         <v>109</v>
@@ -11466,7 +11470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="39"/>
       <c r="B443" s="20" t="s">
         <v>262</v>
@@ -11488,7 +11492,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="39">
         <v>45047</v>
       </c>
@@ -11514,7 +11518,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>116</v>
@@ -11536,7 +11540,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="39"/>
       <c r="B446" s="20" t="s">
         <v>262</v>
@@ -11558,7 +11562,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="39"/>
       <c r="B447" s="20" t="s">
         <v>279</v>
@@ -11578,7 +11582,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="50"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="39">
         <v>45078</v>
       </c>
@@ -11604,7 +11608,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="39"/>
       <c r="B449" s="20" t="s">
         <v>262</v>
@@ -11626,7 +11630,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="39"/>
       <c r="B450" s="20" t="s">
         <v>163</v>
@@ -11646,7 +11650,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="50"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="39">
         <v>45108</v>
       </c>
@@ -11672,7 +11676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="39"/>
       <c r="B452" s="20" t="s">
         <v>112</v>
@@ -11694,7 +11698,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="39"/>
       <c r="B453" s="20" t="s">
         <v>278</v>
@@ -11714,7 +11718,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="50"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="39">
         <v>45139</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="39"/>
       <c r="B455" s="20" t="s">
         <v>108</v>
@@ -11762,7 +11766,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="39"/>
       <c r="B456" s="20" t="s">
         <v>262</v>
@@ -11784,7 +11788,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="39"/>
       <c r="B457" s="20" t="s">
         <v>163</v>
@@ -11804,7 +11808,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="50"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="39">
         <v>45170</v>
       </c>
@@ -11830,7 +11834,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="39"/>
       <c r="B459" s="20" t="s">
         <v>110</v>
@@ -11852,7 +11856,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="39"/>
       <c r="B460" s="20" t="s">
         <v>112</v>
@@ -11874,7 +11878,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="39"/>
       <c r="B461" s="20" t="s">
         <v>262</v>
@@ -11896,7 +11900,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="39"/>
       <c r="B462" s="20" t="s">
         <v>163</v>
@@ -11916,7 +11920,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="50"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="39">
         <v>45200</v>
       </c>
@@ -11942,7 +11946,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="39"/>
       <c r="B464" s="20" t="s">
         <v>146</v>
@@ -11964,7 +11968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="39"/>
       <c r="B465" s="20" t="s">
         <v>262</v>
@@ -11986,7 +11990,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="39"/>
       <c r="B466" s="20" t="s">
         <v>278</v>
@@ -12006,7 +12010,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="50"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="39">
         <v>45231</v>
       </c>
@@ -12032,7 +12036,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="39"/>
       <c r="B468" s="20" t="s">
         <v>262</v>
@@ -12054,7 +12058,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="39"/>
       <c r="B469" s="20" t="s">
         <v>277</v>
@@ -12074,7 +12078,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="50"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="39">
         <v>45261</v>
       </c>
@@ -12098,7 +12102,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="39"/>
       <c r="B471" s="20" t="s">
         <v>276</v>
@@ -12118,7 +12122,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="50"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="46" t="s">
         <v>275</v>
       </c>
@@ -12136,25 +12140,33 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="39">
         <v>45292</v>
       </c>
-      <c r="B473" s="20"/>
-      <c r="C473" s="13"/>
+      <c r="B473" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D473" s="38"/>
       <c r="E473" s="9"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H473" s="38"/>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H473" s="38">
+        <v>2</v>
+      </c>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K473" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="39">
         <v>45323</v>
       </c>
@@ -12172,7 +12184,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="39">
         <v>45352</v>
       </c>
@@ -12190,7 +12202,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="39">
         <v>45383</v>
       </c>
@@ -12208,7 +12220,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="39">
         <v>45413</v>
       </c>
@@ -12226,7 +12238,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="39">
         <v>45444</v>
       </c>
@@ -12244,7 +12256,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="39">
         <v>45474</v>
       </c>
@@ -12262,7 +12274,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="39">
         <v>45505</v>
       </c>
@@ -12280,7 +12292,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="39">
         <v>45536</v>
       </c>
@@ -12298,7 +12310,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="39">
         <v>45566</v>
       </c>
@@ -12316,7 +12328,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="39">
         <v>45597</v>
       </c>
@@ -12334,7 +12346,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="39">
         <v>45627</v>
       </c>
@@ -12352,7 +12364,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="39">
         <v>45658</v>
       </c>
@@ -12370,7 +12382,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="39">
         <v>45689</v>
       </c>
@@ -12388,7 +12400,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="39">
         <v>45717</v>
       </c>
@@ -12406,7 +12418,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="39">
         <v>45748</v>
       </c>
@@ -12424,7 +12436,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="39">
         <v>45778</v>
       </c>
@@ -12442,7 +12454,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="39">
         <v>45809</v>
       </c>
@@ -12460,7 +12472,7 @@
       <c r="J490" s="12"/>
       <c r="K490" s="15"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="39">
         <v>45839</v>
       </c>
@@ -12469,7 +12481,7 @@
       <c r="D491" s="38"/>
       <c r="E491" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F491" s="20"/>
       <c r="G491" s="13" t="str">
@@ -12479,12 +12491,12 @@
       <c r="H491" s="38"/>
       <c r="I491" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="39">
         <v>45870</v>
       </c>
@@ -12493,7 +12505,7 @@
       <c r="D492" s="38"/>
       <c r="E492" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F492" s="20"/>
       <c r="G492" s="13" t="str">
@@ -12503,12 +12515,12 @@
       <c r="H492" s="38"/>
       <c r="I492" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="39">
         <v>45901</v>
       </c>
@@ -12517,7 +12529,7 @@
       <c r="D493" s="38"/>
       <c r="E493" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F493" s="20"/>
       <c r="G493" s="13" t="str">
@@ -12527,12 +12539,12 @@
       <c r="H493" s="38"/>
       <c r="I493" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="39">
         <v>45931</v>
       </c>
@@ -12541,7 +12553,7 @@
       <c r="D494" s="38"/>
       <c r="E494" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F494" s="20"/>
       <c r="G494" s="13" t="str">
@@ -12551,12 +12563,12 @@
       <c r="H494" s="38"/>
       <c r="I494" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="39">
         <v>45962</v>
       </c>
@@ -12565,7 +12577,7 @@
       <c r="D495" s="38"/>
       <c r="E495" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F495" s="20"/>
       <c r="G495" s="13" t="str">
@@ -12575,12 +12587,12 @@
       <c r="H495" s="38"/>
       <c r="I495" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="39">
         <v>45992</v>
       </c>
@@ -12589,7 +12601,7 @@
       <c r="D496" s="38"/>
       <c r="E496" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F496" s="20"/>
       <c r="G496" s="13" t="str">
@@ -12599,12 +12611,12 @@
       <c r="H496" s="38"/>
       <c r="I496" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="39">
         <v>46023</v>
       </c>
@@ -12613,7 +12625,7 @@
       <c r="D497" s="38"/>
       <c r="E497" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F497" s="20"/>
       <c r="G497" s="13" t="str">
@@ -12623,12 +12635,12 @@
       <c r="H497" s="38"/>
       <c r="I497" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="39">
         <v>46054</v>
       </c>
@@ -12637,7 +12649,7 @@
       <c r="D498" s="41"/>
       <c r="E498" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.75100000000006</v>
+        <v>193.00100000000006</v>
       </c>
       <c r="F498" s="20"/>
       <c r="G498" s="13" t="str">
@@ -12647,7 +12659,7 @@
       <c r="H498" s="38"/>
       <c r="I498" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>244.5</v>
+        <v>243.75</v>
       </c>
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
@@ -12667,10 +12679,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12693,28 +12705,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12727,7 +12739,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12756,7 +12768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2.5</v>
       </c>
@@ -12786,17 +12798,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>274</v>
       </c>
@@ -12820,10 +12832,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>436.25100000000009</v>
+        <v>436.75100000000009</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -12851,7 +12863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12877,7 +12889,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12903,7 +12915,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12929,7 +12941,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12955,7 +12967,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12981,7 +12993,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -13007,7 +13019,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -13033,7 +13045,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -13053,7 +13065,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -13073,7 +13085,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -13093,7 +13105,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -13114,7 +13126,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -13135,7 +13147,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -13156,7 +13168,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -13177,7 +13189,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -13198,7 +13210,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -13219,7 +13231,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -13240,7 +13252,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -13261,7 +13273,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13282,7 +13294,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13303,7 +13315,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13324,7 +13336,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13345,7 +13357,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13366,7 +13378,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13387,7 +13399,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13408,7 +13420,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13429,7 +13441,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13450,7 +13462,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13471,7 +13483,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13492,7 +13504,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13513,7 +13525,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13522,7 +13534,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13531,7 +13543,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13540,7 +13552,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13549,7 +13561,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13558,7 +13570,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13567,7 +13579,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13576,7 +13588,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13585,7 +13597,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13594,7 +13606,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13603,7 +13615,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13612,7 +13624,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13621,7 +13633,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13630,7 +13642,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13639,7 +13651,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13648,7 +13660,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13657,7 +13669,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13666,7 +13678,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13675,7 +13687,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13684,7 +13696,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13693,7 +13705,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13702,7 +13714,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13711,7 +13723,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13720,7 +13732,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13729,7 +13741,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13738,7 +13750,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13747,7 +13759,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13756,7 +13768,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13765,7 +13777,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13774,7 +13786,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
+++ b/REGULAR/CTO/DELA CRUZ, EVANGELINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3686480-D21E-401F-9E78-A317E28AB866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="283">
   <si>
     <t>PERIOD</t>
   </si>
@@ -891,11 +890,14 @@
   <si>
     <t>1/25,26/2024</t>
   </si>
+  <si>
+    <t>02/12-16/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1597,7 +1599,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1614,25 +1616,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K498" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K499" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1939,33 +1941,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K498"/>
+  <dimension ref="A2:K499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A468" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K474" sqref="K474"/>
+      <pane ySplit="3690" topLeftCell="A461" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H480" sqref="H480"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1990,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2010,7 +2012,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2032,7 +2034,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2040,7 +2042,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2053,7 +2055,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2070,7 +2072,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2114,7 +2116,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
+        <v>189.25100000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2124,12 +2126,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
+        <v>244</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>124</v>
       </c>
@@ -2151,7 +2153,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34850</v>
       </c>
@@ -2171,7 +2173,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>34880</v>
       </c>
@@ -2191,7 +2193,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>34911</v>
       </c>
@@ -2211,7 +2213,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>34942</v>
       </c>
@@ -2231,7 +2233,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>34972</v>
       </c>
@@ -2251,7 +2253,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35003</v>
       </c>
@@ -2271,7 +2273,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>35033</v>
       </c>
@@ -2291,7 +2293,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>35064</v>
       </c>
@@ -2311,7 +2313,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>123</v>
       </c>
@@ -2326,7 +2328,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>35095</v>
       </c>
@@ -2346,7 +2348,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>35124</v>
       </c>
@@ -2366,7 +2368,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>35155</v>
       </c>
@@ -2386,7 +2388,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>35185</v>
       </c>
@@ -2406,7 +2408,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>35216</v>
       </c>
@@ -2432,7 +2434,7 @@
         <v>35214</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>125</v>
@@ -2452,7 +2454,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>35246</v>
       </c>
@@ -2472,7 +2474,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>35277</v>
       </c>
@@ -2492,7 +2494,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>35308</v>
       </c>
@@ -2512,7 +2514,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>35338</v>
       </c>
@@ -2532,7 +2534,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>35369</v>
       </c>
@@ -2552,7 +2554,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>35399</v>
       </c>
@@ -2572,7 +2574,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>35430</v>
       </c>
@@ -2598,7 +2600,7 @@
         <v>35408</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>126</v>
@@ -2618,7 +2620,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>127</v>
       </c>
@@ -2636,7 +2638,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>35461</v>
       </c>
@@ -2656,7 +2658,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35489</v>
       </c>
@@ -2676,7 +2678,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>35520</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>35501</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>35550</v>
       </c>
@@ -2722,7 +2724,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>35581</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>35611</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>35642</v>
       </c>
@@ -2800,7 +2802,7 @@
         <v>35634</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>108</v>
@@ -2822,7 +2824,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>35673</v>
       </c>
@@ -2842,7 +2844,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>35703</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>131</v>
@@ -2890,7 +2892,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>35734</v>
       </c>
@@ -2916,7 +2918,7 @@
         <v>35751</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>35764</v>
       </c>
@@ -2936,7 +2938,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>35795</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>134</v>
@@ -2979,7 +2981,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>135</v>
@@ -2996,7 +2998,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="46" t="s">
         <v>137</v>
       </c>
@@ -3014,7 +3016,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>35826</v>
       </c>
@@ -3038,7 +3040,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>35854</v>
       </c>
@@ -3064,7 +3066,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>140</v>
@@ -3084,7 +3086,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>35885</v>
       </c>
@@ -3110,7 +3112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>35915</v>
       </c>
@@ -3136,7 +3138,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>110</v>
@@ -3158,7 +3160,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>35946</v>
       </c>
@@ -3178,7 +3180,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>35976</v>
       </c>
@@ -3198,7 +3200,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>36007</v>
       </c>
@@ -3222,7 +3224,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>36038</v>
       </c>
@@ -3242,7 +3244,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>36068</v>
       </c>
@@ -3266,7 +3268,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>36099</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>36129</v>
       </c>
@@ -3316,7 +3318,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>36160</v>
       </c>
@@ -3340,7 +3342,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="46" t="s">
         <v>150</v>
       </c>
@@ -3358,7 +3360,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>36191</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>36168</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>151</v>
@@ -3404,7 +3406,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="50"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>36219</v>
       </c>
@@ -3430,7 +3432,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>36250</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>36280</v>
       </c>
@@ -3476,7 +3478,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>36311</v>
       </c>
@@ -3496,7 +3498,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>36341</v>
       </c>
@@ -3516,7 +3518,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>36372</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>36403</v>
       </c>
@@ -3568,7 +3570,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>36433</v>
       </c>
@@ -3588,7 +3590,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>36464</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>36494</v>
       </c>
@@ -3638,7 +3640,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>36525</v>
       </c>
@@ -3658,7 +3660,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
         <v>158</v>
       </c>
@@ -3676,7 +3678,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>36556</v>
       </c>
@@ -3696,7 +3698,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>36585</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>36616</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>161</v>
@@ -3768,7 +3770,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>36646</v>
       </c>
@@ -3788,7 +3790,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>36677</v>
       </c>
@@ -3808,7 +3810,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>36707</v>
       </c>
@@ -3832,7 +3834,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>36738</v>
       </c>
@@ -3856,7 +3858,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>36769</v>
       </c>
@@ -3876,7 +3878,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>36799</v>
       </c>
@@ -3900,7 +3902,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>36830</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>36819</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>36860</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>165</v>
@@ -3971,7 +3973,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>165</v>
@@ -3990,7 +3992,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>169</v>
@@ -4010,7 +4012,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>36891</v>
       </c>
@@ -4030,7 +4032,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
         <v>170</v>
       </c>
@@ -4048,7 +4050,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>36922</v>
       </c>
@@ -4072,7 +4074,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>36950</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>108</v>
@@ -4120,7 +4122,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>161</v>
@@ -4140,7 +4142,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>109</v>
@@ -4160,7 +4162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>36981</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>162</v>
@@ -4206,7 +4208,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>37011</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>177</v>
@@ -4252,7 +4254,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>37042</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>37072</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>163</v>
@@ -4322,7 +4324,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>37103</v>
       </c>
@@ -4342,7 +4344,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>37134</v>
       </c>
@@ -4362,7 +4364,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>37164</v>
       </c>
@@ -4382,7 +4384,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>37195</v>
       </c>
@@ -4402,7 +4404,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>37225</v>
       </c>
@@ -4422,7 +4424,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>37256</v>
       </c>
@@ -4442,7 +4444,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="46" t="s">
         <v>181</v>
       </c>
@@ -4460,7 +4462,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>37287</v>
       </c>
@@ -4480,7 +4482,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>37315</v>
       </c>
@@ -4500,7 +4502,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>37346</v>
       </c>
@@ -4520,7 +4522,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>37376</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>37407</v>
       </c>
@@ -4566,7 +4568,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>37437</v>
       </c>
@@ -4586,7 +4588,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>37468</v>
       </c>
@@ -4606,7 +4608,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>37499</v>
       </c>
@@ -4626,7 +4628,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>37529</v>
       </c>
@@ -4646,7 +4648,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>37560</v>
       </c>
@@ -4672,7 +4674,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>37590</v>
       </c>
@@ -4692,7 +4694,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>37621</v>
       </c>
@@ -4716,7 +4718,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="46" t="s">
         <v>184</v>
       </c>
@@ -4734,7 +4736,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>37652</v>
       </c>
@@ -4754,7 +4756,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>37680</v>
       </c>
@@ -4774,7 +4776,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>37711</v>
       </c>
@@ -4798,7 +4800,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>37741</v>
       </c>
@@ -4822,7 +4824,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>37772</v>
       </c>
@@ -4846,7 +4848,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>37802</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>37833</v>
       </c>
@@ -4892,7 +4894,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>37864</v>
       </c>
@@ -4912,7 +4914,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>37894</v>
       </c>
@@ -4932,7 +4934,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>37925</v>
       </c>
@@ -4952,7 +4954,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>37955</v>
       </c>
@@ -4978,7 +4980,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>37986</v>
       </c>
@@ -4998,7 +5000,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="46" t="s">
         <v>189</v>
       </c>
@@ -5016,7 +5018,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38017</v>
       </c>
@@ -5036,7 +5038,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>38046</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38077</v>
       </c>
@@ -5080,7 +5082,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>38107</v>
       </c>
@@ -5100,7 +5102,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>38138</v>
       </c>
@@ -5124,7 +5126,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>38168</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>38199</v>
       </c>
@@ -5174,7 +5176,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>38230</v>
       </c>
@@ -5198,7 +5200,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>38260</v>
       </c>
@@ -5222,7 +5224,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>38291</v>
       </c>
@@ -5242,7 +5244,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>38321</v>
       </c>
@@ -5262,7 +5264,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>38352</v>
       </c>
@@ -5282,7 +5284,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="46" t="s">
         <v>195</v>
       </c>
@@ -5300,7 +5302,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>38383</v>
       </c>
@@ -5326,7 +5328,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>38411</v>
       </c>
@@ -5346,7 +5348,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>38442</v>
       </c>
@@ -5366,7 +5368,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>38472</v>
       </c>
@@ -5386,7 +5388,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>38503</v>
       </c>
@@ -5406,7 +5408,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>38533</v>
       </c>
@@ -5426,7 +5428,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>38564</v>
       </c>
@@ -5446,7 +5448,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>38595</v>
       </c>
@@ -5466,7 +5468,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>38625</v>
       </c>
@@ -5492,7 +5494,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>38656</v>
       </c>
@@ -5512,7 +5514,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>38686</v>
       </c>
@@ -5532,7 +5534,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>38717</v>
       </c>
@@ -5552,7 +5554,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="46" t="s">
         <v>198</v>
       </c>
@@ -5570,7 +5572,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>38748</v>
       </c>
@@ -5590,7 +5592,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>38776</v>
       </c>
@@ -5610,7 +5612,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>38807</v>
       </c>
@@ -5630,7 +5632,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>38837</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>38868</v>
       </c>
@@ -5676,7 +5678,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>38898</v>
       </c>
@@ -5696,7 +5698,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>38929</v>
       </c>
@@ -5716,7 +5718,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>38960</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>38990</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>39021</v>
       </c>
@@ -5786,7 +5788,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>39051</v>
       </c>
@@ -5806,7 +5808,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>39082</v>
       </c>
@@ -5826,7 +5828,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="46" t="s">
         <v>202</v>
       </c>
@@ -5844,7 +5846,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>39113</v>
       </c>
@@ -5864,7 +5866,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>39141</v>
       </c>
@@ -5884,7 +5886,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>39172</v>
       </c>
@@ -5904,7 +5906,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>39202</v>
       </c>
@@ -5924,7 +5926,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>39233</v>
       </c>
@@ -5944,7 +5946,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>39263</v>
       </c>
@@ -5964,7 +5966,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>39294</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>39325</v>
       </c>
@@ -6010,7 +6012,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>39355</v>
       </c>
@@ -6030,7 +6032,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>39386</v>
       </c>
@@ -6050,7 +6052,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>39416</v>
       </c>
@@ -6076,7 +6078,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>39447</v>
       </c>
@@ -6096,7 +6098,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="46" t="s">
         <v>206</v>
       </c>
@@ -6114,7 +6116,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>39478</v>
       </c>
@@ -6134,7 +6136,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>39507</v>
       </c>
@@ -6154,7 +6156,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>39538</v>
       </c>
@@ -6174,7 +6176,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>39568</v>
       </c>
@@ -6194,7 +6196,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>39599</v>
       </c>
@@ -6214,7 +6216,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>39629</v>
       </c>
@@ -6234,7 +6236,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>39660</v>
       </c>
@@ -6254,7 +6256,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>39691</v>
       </c>
@@ -6274,7 +6276,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>39721</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>125</v>
@@ -6322,7 +6324,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>39752</v>
       </c>
@@ -6342,7 +6344,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>39782</v>
       </c>
@@ -6362,7 +6364,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>39813</v>
       </c>
@@ -6382,7 +6384,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="46" t="s">
         <v>209</v>
       </c>
@@ -6400,7 +6402,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>39844</v>
       </c>
@@ -6420,7 +6422,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>39872</v>
       </c>
@@ -6444,7 +6446,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>39903</v>
       </c>
@@ -6464,7 +6466,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>39933</v>
       </c>
@@ -6484,7 +6486,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>39964</v>
       </c>
@@ -6504,7 +6506,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>39994</v>
       </c>
@@ -6524,7 +6526,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>40025</v>
       </c>
@@ -6544,7 +6546,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>40056</v>
       </c>
@@ -6564,7 +6566,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>40086</v>
       </c>
@@ -6584,7 +6586,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>40117</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>40147</v>
       </c>
@@ -6630,7 +6632,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>40178</v>
       </c>
@@ -6650,7 +6652,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="46" t="s">
         <v>212</v>
       </c>
@@ -6668,7 +6670,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>40209</v>
       </c>
@@ -6688,7 +6690,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>40237</v>
       </c>
@@ -6708,7 +6710,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>40268</v>
       </c>
@@ -6728,7 +6730,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>40298</v>
       </c>
@@ -6748,7 +6750,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>40329</v>
       </c>
@@ -6768,7 +6770,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>40359</v>
       </c>
@@ -6792,7 +6794,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>40390</v>
       </c>
@@ -6812,7 +6814,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>40421</v>
       </c>
@@ -6832,7 +6834,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>40451</v>
       </c>
@@ -6852,7 +6854,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>40482</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>40512</v>
       </c>
@@ -6898,7 +6900,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>40543</v>
       </c>
@@ -6918,7 +6920,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="46" t="s">
         <v>215</v>
       </c>
@@ -6936,7 +6938,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>40574</v>
       </c>
@@ -6956,7 +6958,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>40602</v>
       </c>
@@ -6976,7 +6978,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>40633</v>
       </c>
@@ -6996,7 +6998,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>40663</v>
       </c>
@@ -7016,7 +7018,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>40694</v>
       </c>
@@ -7036,7 +7038,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>40724</v>
       </c>
@@ -7056,7 +7058,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>40755</v>
       </c>
@@ -7076,7 +7078,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>40786</v>
       </c>
@@ -7096,7 +7098,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>40816</v>
       </c>
@@ -7116,7 +7118,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>40847</v>
       </c>
@@ -7136,7 +7138,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>40877</v>
       </c>
@@ -7156,7 +7158,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>40908</v>
       </c>
@@ -7178,7 +7180,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="46" t="s">
         <v>216</v>
       </c>
@@ -7196,7 +7198,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>40939</v>
       </c>
@@ -7216,7 +7218,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>40968</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>40999</v>
       </c>
@@ -7260,7 +7262,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>41029</v>
       </c>
@@ -7284,7 +7286,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>41060</v>
       </c>
@@ -7304,7 +7306,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>41090</v>
       </c>
@@ -7324,7 +7326,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>41121</v>
       </c>
@@ -7344,7 +7346,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>41152</v>
       </c>
@@ -7364,7 +7366,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>41182</v>
       </c>
@@ -7384,7 +7386,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>41213</v>
       </c>
@@ -7408,7 +7410,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>125</v>
@@ -7430,7 +7432,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>41243</v>
       </c>
@@ -7450,7 +7452,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>41274</v>
       </c>
@@ -7470,7 +7472,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="46" t="s">
         <v>221</v>
       </c>
@@ -7488,7 +7490,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>41305</v>
       </c>
@@ -7508,7 +7510,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>41333</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>41364</v>
       </c>
@@ -7552,7 +7554,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>41394</v>
       </c>
@@ -7572,7 +7574,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>41425</v>
       </c>
@@ -7592,7 +7594,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>41455</v>
       </c>
@@ -7612,7 +7614,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>41486</v>
       </c>
@@ -7632,7 +7634,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>41517</v>
       </c>
@@ -7652,7 +7654,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>41547</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>41529</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>41578</v>
       </c>
@@ -7698,7 +7700,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>41608</v>
       </c>
@@ -7722,7 +7724,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>125</v>
@@ -7742,7 +7744,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>41639</v>
       </c>
@@ -7762,7 +7764,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="46" t="s">
         <v>225</v>
       </c>
@@ -7780,7 +7782,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>41670</v>
       </c>
@@ -7800,7 +7802,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>41698</v>
       </c>
@@ -7826,7 +7828,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>109</v>
@@ -7843,7 +7845,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>109</v>
@@ -7860,7 +7862,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>41729</v>
       </c>
@@ -7880,7 +7882,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>41759</v>
       </c>
@@ -7900,7 +7902,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>41790</v>
       </c>
@@ -7920,7 +7922,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>41820</v>
       </c>
@@ -7940,7 +7942,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>41851</v>
       </c>
@@ -7966,7 +7968,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>41882</v>
       </c>
@@ -7986,7 +7988,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>41912</v>
       </c>
@@ -8006,7 +8008,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>41943</v>
       </c>
@@ -8026,7 +8028,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>41973</v>
       </c>
@@ -8052,7 +8054,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>42004</v>
       </c>
@@ -8072,7 +8074,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="46" t="s">
         <v>230</v>
       </c>
@@ -8090,7 +8092,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>42035</v>
       </c>
@@ -8110,7 +8112,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>42063</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>42094</v>
       </c>
@@ -8158,7 +8160,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>42124</v>
       </c>
@@ -8182,7 +8184,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>234</v>
@@ -8202,7 +8204,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>42155</v>
       </c>
@@ -8226,7 +8228,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>42185</v>
       </c>
@@ -8252,7 +8254,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>42216</v>
       </c>
@@ -8272,7 +8274,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>42247</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>42277</v>
       </c>
@@ -8318,7 +8320,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>42308</v>
       </c>
@@ -8344,7 +8346,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>42338</v>
       </c>
@@ -8364,7 +8366,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>42369</v>
       </c>
@@ -8384,7 +8386,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="46" t="s">
         <v>239</v>
       </c>
@@ -8402,7 +8404,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>42400</v>
       </c>
@@ -8428,7 +8430,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>112</v>
@@ -8450,7 +8452,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>42429</v>
       </c>
@@ -8476,7 +8478,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>42460</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>243</v>
@@ -8524,7 +8526,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>42490</v>
       </c>
@@ -8548,7 +8550,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>42521</v>
       </c>
@@ -8568,7 +8570,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>42551</v>
       </c>
@@ -8594,7 +8596,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>100</v>
@@ -8616,7 +8618,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>42582</v>
       </c>
@@ -8636,7 +8638,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>42613</v>
       </c>
@@ -8656,7 +8658,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>42643</v>
       </c>
@@ -8676,7 +8678,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>42674</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>42704</v>
       </c>
@@ -8726,7 +8728,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>42735</v>
       </c>
@@ -8746,7 +8748,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="46" t="s">
         <v>250</v>
       </c>
@@ -8764,7 +8766,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>42766</v>
       </c>
@@ -8784,7 +8786,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>42794</v>
       </c>
@@ -8810,7 +8812,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>109</v>
@@ -8830,7 +8832,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>42825</v>
       </c>
@@ -8856,7 +8858,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>109</v>
@@ -8876,7 +8878,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>42855</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>109</v>
@@ -8922,7 +8924,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>42886</v>
       </c>
@@ -8942,7 +8944,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>42916</v>
       </c>
@@ -8968,7 +8970,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>42947</v>
       </c>
@@ -8994,7 +8996,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>110</v>
@@ -9013,7 +9015,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>110</v>
@@ -9032,7 +9034,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>42978</v>
       </c>
@@ -9052,7 +9054,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>43008</v>
       </c>
@@ -9078,7 +9080,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>43039</v>
       </c>
@@ -9104,7 +9106,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>125</v>
@@ -9126,7 +9128,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>110</v>
@@ -9148,7 +9150,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>43069</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>43100</v>
       </c>
@@ -9192,7 +9194,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
         <v>47</v>
       </c>
@@ -9210,7 +9212,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39">
         <v>43101</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <v>43132</v>
       </c>
@@ -9262,7 +9264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39"/>
       <c r="B343" s="20" t="s">
         <v>49</v>
@@ -9284,7 +9286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>52</v>
@@ -9304,7 +9306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <v>43160</v>
       </c>
@@ -9330,7 +9332,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="49">
         <v>43191</v>
       </c>
@@ -9350,7 +9352,7 @@
       <c r="J346" s="12"/>
       <c r="K346" s="15"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39">
         <v>43221</v>
       </c>
@@ -9372,7 +9374,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -9392,7 +9394,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39"/>
       <c r="B349" s="20" t="s">
         <v>58</v>
@@ -9416,7 +9418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
         <v>43252</v>
       </c>
@@ -9442,7 +9444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>43282</v>
       </c>
@@ -9462,7 +9464,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>43313</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>49</v>
@@ -9512,7 +9514,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <v>43344</v>
       </c>
@@ -9532,7 +9534,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <v>43374</v>
       </c>
@@ -9556,7 +9558,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39"/>
       <c r="B356" s="20" t="s">
         <v>48</v>
@@ -9578,7 +9580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -9602,7 +9604,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <v>43405</v>
       </c>
@@ -9628,7 +9630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <v>43435</v>
       </c>
@@ -9648,7 +9650,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="46" t="s">
         <v>68</v>
       </c>
@@ -9666,7 +9668,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <v>43466</v>
       </c>
@@ -9692,7 +9694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>43497</v>
       </c>
@@ -9716,7 +9718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>43525</v>
       </c>
@@ -9736,7 +9738,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <v>43556</v>
       </c>
@@ -9760,7 +9762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39"/>
       <c r="B365" s="20" t="s">
         <v>52</v>
@@ -9780,7 +9782,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39"/>
       <c r="B366" s="20" t="s">
         <v>60</v>
@@ -9804,7 +9806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <v>43586</v>
       </c>
@@ -9824,7 +9826,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>43617</v>
       </c>
@@ -9850,7 +9852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <v>43647</v>
       </c>
@@ -9870,7 +9872,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>43678</v>
       </c>
@@ -9890,7 +9892,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>43709</v>
       </c>
@@ -9916,7 +9918,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <v>43739</v>
       </c>
@@ -9936,7 +9938,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <v>43770</v>
       </c>
@@ -9956,7 +9958,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <v>43800</v>
       </c>
@@ -9980,7 +9982,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="46" t="s">
         <v>78</v>
       </c>
@@ -9998,7 +10000,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <v>43831</v>
       </c>
@@ -10022,7 +10024,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <v>43862</v>
       </c>
@@ -10048,7 +10050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <v>43525</v>
       </c>
@@ -10068,7 +10070,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <v>43922</v>
       </c>
@@ -10092,7 +10094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <v>43983</v>
       </c>
@@ -10112,7 +10114,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <v>44013</v>
       </c>
@@ -10132,7 +10134,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>44044</v>
       </c>
@@ -10152,7 +10154,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <v>44075</v>
       </c>
@@ -10176,7 +10178,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39"/>
       <c r="B384" s="20" t="s">
         <v>49</v>
@@ -10200,7 +10202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <v>44105</v>
       </c>
@@ -10220,7 +10222,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <v>44136</v>
       </c>
@@ -10240,7 +10242,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39">
         <v>44166</v>
       </c>
@@ -10264,7 +10266,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="46" t="s">
         <v>86</v>
       </c>
@@ -10282,7 +10284,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <v>44197</v>
       </c>
@@ -10302,7 +10304,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>44228</v>
       </c>
@@ -10322,7 +10324,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <v>44256</v>
       </c>
@@ -10342,7 +10344,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <v>44287</v>
       </c>
@@ -10362,7 +10364,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <v>44317</v>
       </c>
@@ -10382,7 +10384,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <v>44348</v>
       </c>
@@ -10402,7 +10404,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>44378</v>
       </c>
@@ -10422,7 +10424,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <v>44409</v>
       </c>
@@ -10444,7 +10446,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39"/>
       <c r="B397" s="20" t="s">
         <v>49</v>
@@ -10464,7 +10466,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>44440</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
         <v>44470</v>
       </c>
@@ -10508,7 +10510,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>44501</v>
       </c>
@@ -10534,7 +10536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39"/>
       <c r="B401" s="20" t="s">
         <v>52</v>
@@ -10554,7 +10556,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>44531</v>
       </c>
@@ -10574,7 +10576,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="46" t="s">
         <v>90</v>
       </c>
@@ -10592,7 +10594,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39">
         <v>44562</v>
       </c>
@@ -10612,7 +10614,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39">
         <v>44593</v>
       </c>
@@ -10632,7 +10634,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <v>44621</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39"/>
       <c r="B407" s="20" t="s">
         <v>49</v>
@@ -10680,7 +10682,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39"/>
       <c r="B408" s="20" t="s">
         <v>262</v>
@@ -10702,7 +10704,7 @@
         <v>44635</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39">
         <v>44652</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39">
         <v>44682</v>
       </c>
@@ -10752,7 +10754,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39">
         <v>44713</v>
       </c>
@@ -10778,7 +10780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -10800,7 +10802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39"/>
       <c r="B413" s="20" t="s">
         <v>48</v>
@@ -10822,7 +10824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>60</v>
@@ -10844,7 +10846,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39">
         <v>44743</v>
       </c>
@@ -10864,7 +10866,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39">
         <v>44774</v>
       </c>
@@ -10890,7 +10892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
         <v>49</v>
@@ -10914,7 +10916,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
         <v>262</v>
@@ -10936,7 +10938,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39"/>
       <c r="B419" s="20" t="s">
         <v>169</v>
@@ -10956,7 +10958,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="50"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
         <v>44805</v>
       </c>
@@ -10982,7 +10984,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39"/>
       <c r="B421" s="20" t="s">
         <v>52</v>
@@ -11002,7 +11004,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39"/>
       <c r="B422" s="20" t="s">
         <v>264</v>
@@ -11024,7 +11026,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>265</v>
@@ -11044,7 +11046,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="50"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
         <v>44844</v>
       </c>
@@ -11070,7 +11072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39"/>
       <c r="B425" s="20" t="s">
         <v>165</v>
@@ -11092,7 +11094,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39"/>
       <c r="B426" s="20" t="s">
         <v>265</v>
@@ -11112,7 +11114,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39">
         <v>44866</v>
       </c>
@@ -11132,7 +11134,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
         <v>44896</v>
       </c>
@@ -11158,7 +11160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39"/>
       <c r="B429" s="20" t="s">
         <v>102</v>
@@ -11180,7 +11182,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39"/>
       <c r="B430" s="20" t="s">
         <v>120</v>
@@ -11202,7 +11204,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39"/>
       <c r="B431" s="20" t="s">
         <v>122</v>
@@ -11222,7 +11224,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="46" t="s">
         <v>104</v>
       </c>
@@ -11240,7 +11242,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
         <v>44927</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39"/>
       <c r="B434" s="20" t="s">
         <v>280</v>
@@ -11286,7 +11288,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39">
         <v>44958</v>
       </c>
@@ -11312,7 +11314,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39"/>
       <c r="B436" s="20" t="s">
         <v>109</v>
@@ -11332,7 +11334,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39"/>
       <c r="B437" s="20" t="s">
         <v>262</v>
@@ -11354,7 +11356,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
         <v>44986</v>
       </c>
@@ -11380,7 +11382,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39"/>
       <c r="B439" s="20" t="s">
         <v>113</v>
@@ -11402,7 +11404,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>262</v>
@@ -11424,7 +11426,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
         <v>45017</v>
       </c>
@@ -11450,7 +11452,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39"/>
       <c r="B442" s="20" t="s">
         <v>109</v>
@@ -11470,7 +11472,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39"/>
       <c r="B443" s="20" t="s">
         <v>262</v>
@@ -11492,7 +11494,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
         <v>45047</v>
       </c>
@@ -11518,7 +11520,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>116</v>
@@ -11540,7 +11542,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39"/>
       <c r="B446" s="20" t="s">
         <v>262</v>
@@ -11562,7 +11564,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39"/>
       <c r="B447" s="20" t="s">
         <v>279</v>
@@ -11582,7 +11584,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="50"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
         <v>45078</v>
       </c>
@@ -11608,7 +11610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39"/>
       <c r="B449" s="20" t="s">
         <v>262</v>
@@ -11630,7 +11632,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39"/>
       <c r="B450" s="20" t="s">
         <v>163</v>
@@ -11650,7 +11652,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="50"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
         <v>45108</v>
       </c>
@@ -11676,7 +11678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39"/>
       <c r="B452" s="20" t="s">
         <v>112</v>
@@ -11698,7 +11700,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39"/>
       <c r="B453" s="20" t="s">
         <v>278</v>
@@ -11718,7 +11720,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="50"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39">
         <v>45139</v>
       </c>
@@ -11744,7 +11746,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39"/>
       <c r="B455" s="20" t="s">
         <v>108</v>
@@ -11766,7 +11768,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39"/>
       <c r="B456" s="20" t="s">
         <v>262</v>
@@ -11788,7 +11790,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39"/>
       <c r="B457" s="20" t="s">
         <v>163</v>
@@ -11808,7 +11810,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="50"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39">
         <v>45170</v>
       </c>
@@ -11834,7 +11836,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39"/>
       <c r="B459" s="20" t="s">
         <v>110</v>
@@ -11856,7 +11858,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39"/>
       <c r="B460" s="20" t="s">
         <v>112</v>
@@ -11878,7 +11880,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39"/>
       <c r="B461" s="20" t="s">
         <v>262</v>
@@ -11900,7 +11902,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39"/>
       <c r="B462" s="20" t="s">
         <v>163</v>
@@ -11920,7 +11922,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="50"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
         <v>45200</v>
       </c>
@@ -11946,7 +11948,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39"/>
       <c r="B464" s="20" t="s">
         <v>146</v>
@@ -11968,7 +11970,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39"/>
       <c r="B465" s="20" t="s">
         <v>262</v>
@@ -11990,7 +11992,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39"/>
       <c r="B466" s="20" t="s">
         <v>278</v>
@@ -12010,7 +12012,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="50"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
         <v>45231</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39"/>
       <c r="B468" s="20" t="s">
         <v>262</v>
@@ -12058,7 +12060,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39"/>
       <c r="B469" s="20" t="s">
         <v>277</v>
@@ -12078,22 +12080,24 @@
       <c r="J469" s="11"/>
       <c r="K469" s="50"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
         <v>45261</v>
       </c>
       <c r="B470" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C470" s="13"/>
+      <c r="C470" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D470" s="38">
         <v>1</v>
       </c>
       <c r="E470" s="9"/>
       <c r="F470" s="20"/>
-      <c r="G470" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G470" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H470" s="38"/>
       <c r="I470" s="9"/>
@@ -12102,7 +12106,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39"/>
       <c r="B471" s="20" t="s">
         <v>276</v>
@@ -12122,7 +12126,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="50"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="46" t="s">
         <v>275</v>
       </c>
@@ -12140,7 +12144,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
         <v>45292</v>
       </c>
@@ -12166,13 +12170,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
         <v>45323</v>
       </c>
-      <c r="B474" s="20"/>
+      <c r="B474" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="C474" s="13"/>
-      <c r="D474" s="38"/>
+      <c r="D474" s="38">
+        <v>5</v>
+      </c>
       <c r="E474" s="9"/>
       <c r="F474" s="20"/>
       <c r="G474" s="13" t="str">
@@ -12182,13 +12190,15 @@
       <c r="H474" s="38"/>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
-      <c r="K474" s="20"/>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A475" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B475" s="20"/>
+      <c r="K474" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="39"/>
+      <c r="B475" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C475" s="13"/>
       <c r="D475" s="38"/>
       <c r="E475" s="9"/>
@@ -12197,14 +12207,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H475" s="38"/>
+      <c r="H475" s="38">
+        <v>1</v>
+      </c>
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
-      <c r="K475" s="20"/>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K475" s="50">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12220,9 +12234,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12238,9 +12252,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12256,9 +12270,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12274,9 +12288,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12292,9 +12306,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12310,9 +12324,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12328,9 +12342,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12346,9 +12360,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12364,9 +12378,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12382,9 +12396,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12400,9 +12414,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12418,251 +12432,185 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
       <c r="D488" s="38"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G488" s="13"/>
       <c r="H488" s="38"/>
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
       <c r="D489" s="38"/>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G489" s="13"/>
       <c r="H489" s="38"/>
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
       <c r="D490" s="38"/>
       <c r="E490" s="9"/>
-      <c r="F490" s="15"/>
-      <c r="G490" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H490" s="41"/>
+      <c r="F490" s="20"/>
+      <c r="G490" s="13"/>
+      <c r="H490" s="38"/>
       <c r="I490" s="9"/>
-      <c r="J490" s="12"/>
-      <c r="K490" s="15"/>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J490" s="11"/>
+      <c r="K490" s="20"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
       <c r="D491" s="38"/>
-      <c r="E491" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
-      </c>
-      <c r="F491" s="20"/>
-      <c r="G491" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H491" s="38"/>
-      <c r="I491" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
-      </c>
-      <c r="J491" s="11"/>
-      <c r="K491" s="20"/>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E491" s="9"/>
+      <c r="F491" s="15"/>
+      <c r="G491" s="40"/>
+      <c r="H491" s="41"/>
+      <c r="I491" s="9"/>
+      <c r="J491" s="12"/>
+      <c r="K491" s="15"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
       <c r="D492" s="38"/>
-      <c r="E492" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
-      </c>
+      <c r="E492" s="9"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G492" s="13"/>
       <c r="H492" s="38"/>
-      <c r="I492" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
-      </c>
+      <c r="I492" s="9"/>
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
       <c r="D493" s="38"/>
-      <c r="E493" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
-      </c>
+      <c r="E493" s="9"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G493" s="13"/>
       <c r="H493" s="38"/>
-      <c r="I493" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
-      </c>
+      <c r="I493" s="9"/>
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
       <c r="D494" s="38"/>
-      <c r="E494" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
-      </c>
+      <c r="E494" s="9"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G494" s="13"/>
       <c r="H494" s="38"/>
-      <c r="I494" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
-      </c>
+      <c r="I494" s="9"/>
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
       <c r="D495" s="38"/>
-      <c r="E495" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
-      </c>
+      <c r="E495" s="9"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G495" s="13"/>
       <c r="H495" s="38"/>
-      <c r="I495" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
-      </c>
+      <c r="I495" s="9"/>
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
       <c r="D496" s="38"/>
-      <c r="E496" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
-      </c>
+      <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G496" s="13"/>
       <c r="H496" s="38"/>
-      <c r="I496" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
-      </c>
+      <c r="I496" s="9"/>
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
       <c r="D497" s="38"/>
-      <c r="E497" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
-      </c>
+      <c r="E497" s="9"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G497" s="13"/>
       <c r="H497" s="38"/>
-      <c r="I497" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
-      </c>
+      <c r="I497" s="9"/>
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="39">
-        <v>46054</v>
-      </c>
-      <c r="B498" s="15"/>
-      <c r="C498" s="40"/>
-      <c r="D498" s="41"/>
-      <c r="E498" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>193.00100000000006</v>
-      </c>
+        <v>46023</v>
+      </c>
+      <c r="B498" s="20"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="38"/>
+      <c r="E498" s="9"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G498" s="13"/>
       <c r="H498" s="38"/>
-      <c r="I498" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.75</v>
-      </c>
+      <c r="I498" s="9"/>
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499" s="39">
+        <v>46054</v>
+      </c>
+      <c r="B499" s="15"/>
+      <c r="C499" s="40"/>
+      <c r="D499" s="41"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="20"/>
+      <c r="G499" s="13"/>
+      <c r="H499" s="38"/>
+      <c r="I499" s="9"/>
+      <c r="J499" s="11"/>
+      <c r="K499" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12679,10 +12627,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12705,28 +12653,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12739,7 +12687,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12768,7 +12716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2.5</v>
       </c>
@@ -12798,17 +12746,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>274</v>
       </c>
@@ -12832,10 +12780,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>436.75100000000009</v>
+        <v>433.25100000000009</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -12863,7 +12811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12889,7 +12837,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12915,7 +12863,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12941,7 +12889,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12967,7 +12915,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12993,7 +12941,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -13019,7 +12967,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -13045,7 +12993,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -13065,7 +13013,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -13085,7 +13033,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -13105,7 +13053,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -13126,7 +13074,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -13147,7 +13095,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -13168,7 +13116,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -13189,7 +13137,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -13210,7 +13158,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -13231,7 +13179,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -13252,7 +13200,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -13273,7 +13221,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13294,7 +13242,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13315,7 +13263,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13336,7 +13284,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13357,7 +13305,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13378,7 +13326,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13399,7 +13347,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13420,7 +13368,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13441,7 +13389,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13462,7 +13410,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13483,7 +13431,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13504,7 +13452,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13525,7 +13473,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13534,7 +13482,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13543,7 +13491,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13552,7 +13500,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13561,7 +13509,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13570,7 +13518,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13579,7 +13527,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13588,7 +13536,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13597,7 +13545,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13606,7 +13554,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13615,7 +13563,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13624,7 +13572,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13633,7 +13581,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13642,7 +13590,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13651,7 +13599,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13660,7 +13608,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13669,7 +13617,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13678,7 +13626,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13687,7 +13635,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13696,7 +13644,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13705,7 +13653,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13714,7 +13662,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13723,7 +13671,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13732,7 +13680,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13741,7 +13689,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13750,7 +13698,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13759,7 +13707,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13768,7 +13716,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13777,7 +13725,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13786,7 +13734,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
